--- a/Networks/Parte4/Excel/Network32-32.xlsx
+++ b/Networks/Parte4/Excel/Network32-32.xlsx
@@ -605,100 +605,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-77.00661512105179</v>
+        <v>-44.32808744316923</v>
       </c>
       <c r="C2" t="n">
-        <v>-27.45477092326212</v>
+        <v>-7.69807973591913</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.915730172714873</v>
+        <v>17.10839879163749</v>
       </c>
       <c r="E2" t="n">
-        <v>23.51688143251484</v>
+        <v>-18.57106933544505</v>
       </c>
       <c r="F2" t="n">
-        <v>9.279979241844019</v>
+        <v>-79.4861561277914</v>
       </c>
       <c r="G2" t="n">
-        <v>62.7532124643625</v>
+        <v>1.820887193231107</v>
       </c>
       <c r="H2" t="n">
-        <v>-85.52226541343599</v>
+        <v>28.94641014872014</v>
       </c>
       <c r="I2" t="n">
-        <v>-23.75135310238632</v>
+        <v>-42.53346697496066</v>
       </c>
       <c r="J2" t="n">
-        <v>-71.3296316256484</v>
+        <v>-100.6214482233686</v>
       </c>
       <c r="K2" t="n">
-        <v>17.84238754160617</v>
+        <v>-90.71547207839039</v>
       </c>
       <c r="L2" t="n">
-        <v>44.59328664191244</v>
+        <v>-62.78428523425961</v>
       </c>
       <c r="M2" t="n">
-        <v>51.86426119875838</v>
+        <v>-63.1020690030751</v>
       </c>
       <c r="N2" t="n">
-        <v>-29.36533703562749</v>
+        <v>-96.85305712936272</v>
       </c>
       <c r="O2" t="n">
-        <v>-32.09809319941564</v>
+        <v>-19.81521201064884</v>
       </c>
       <c r="P2" t="n">
-        <v>-56.06704495976384</v>
+        <v>34.14705755081795</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.9648963057639</v>
+        <v>88.70273378481316</v>
       </c>
       <c r="R2" t="n">
-        <v>-61.91326222807317</v>
+        <v>60.29030680393458</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.371811168105032</v>
+        <v>4.976304883318179</v>
       </c>
       <c r="T2" t="n">
-        <v>28.83726169864946</v>
+        <v>-150.4810863065698</v>
       </c>
       <c r="U2" t="n">
-        <v>-47.84807234824616</v>
+        <v>-52.9865673571998</v>
       </c>
       <c r="V2" t="n">
-        <v>44.9754248301053</v>
+        <v>-86.20092636069135</v>
       </c>
       <c r="W2" t="n">
-        <v>-35.91678564145695</v>
+        <v>-18.21247215033119</v>
       </c>
       <c r="X2" t="n">
-        <v>-91.61998121867438</v>
+        <v>-99.28472756242711</v>
       </c>
       <c r="Y2" t="n">
-        <v>-15.11454468124799</v>
+        <v>90.92947626541947</v>
       </c>
       <c r="Z2" t="n">
-        <v>-70.10215364134008</v>
+        <v>-60.50421513387209</v>
       </c>
       <c r="AA2" t="n">
-        <v>-8.71162119598265</v>
+        <v>41.35458882873612</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.008298266558855</v>
+        <v>31.68836688091136</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2880537835268382</v>
+        <v>66.84446208135614</v>
       </c>
       <c r="AD2" t="n">
-        <v>20.42059646348619</v>
+        <v>18.97176947909606</v>
       </c>
       <c r="AE2" t="n">
-        <v>-62.74099826228983</v>
+        <v>29.62422747594891</v>
       </c>
       <c r="AF2" t="n">
-        <v>-48.96871543142567</v>
+        <v>-21.79642714657543</v>
       </c>
       <c r="AG2" t="n">
-        <v>-70.85830686422189</v>
+        <v>-97.62910499177637</v>
       </c>
     </row>
     <row r="3">
@@ -708,100 +708,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.69834461177621</v>
+        <v>1.491085351440783</v>
       </c>
       <c r="C3" t="n">
-        <v>75.68403730736695</v>
+        <v>-101.9147375899433</v>
       </c>
       <c r="D3" t="n">
-        <v>7.687270742661439</v>
+        <v>-0.9487342244120233</v>
       </c>
       <c r="E3" t="n">
-        <v>63.06399422349448</v>
+        <v>-91.96207046293893</v>
       </c>
       <c r="F3" t="n">
-        <v>57.00996001358683</v>
+        <v>54.57895877922947</v>
       </c>
       <c r="G3" t="n">
-        <v>73.8336620727744</v>
+        <v>55.22306331944264</v>
       </c>
       <c r="H3" t="n">
-        <v>48.66557318934663</v>
+        <v>44.50702216220228</v>
       </c>
       <c r="I3" t="n">
-        <v>-48.18994990808904</v>
+        <v>34.13006516386146</v>
       </c>
       <c r="J3" t="n">
-        <v>28.6368500489897</v>
+        <v>14.86069115767587</v>
       </c>
       <c r="K3" t="n">
-        <v>-98.55757764545592</v>
+        <v>72.99551600570786</v>
       </c>
       <c r="L3" t="n">
-        <v>76.46881569578689</v>
+        <v>66.29284500291263</v>
       </c>
       <c r="M3" t="n">
-        <v>55.53888339877678</v>
+        <v>9.684365046050711</v>
       </c>
       <c r="N3" t="n">
-        <v>59.00756244372957</v>
+        <v>61.81746471459243</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.348956133570445</v>
+        <v>29.72684896893362</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.805897626111012</v>
+        <v>107.6710182511986</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.27668373396168</v>
+        <v>68.21970675868671</v>
       </c>
       <c r="R3" t="n">
-        <v>10.05549235788369</v>
+        <v>39.77832162065803</v>
       </c>
       <c r="S3" t="n">
-        <v>56.86886072505556</v>
+        <v>-42.60145653031841</v>
       </c>
       <c r="T3" t="n">
-        <v>61.85658504035</v>
+        <v>46.89769342108153</v>
       </c>
       <c r="U3" t="n">
-        <v>12.84284087273544</v>
+        <v>-32.18800075875585</v>
       </c>
       <c r="V3" t="n">
-        <v>-52.56598325621518</v>
+        <v>53.40371615983879</v>
       </c>
       <c r="W3" t="n">
-        <v>42.59374570687806</v>
+        <v>-105.1456720582734</v>
       </c>
       <c r="X3" t="n">
-        <v>83.08178956134198</v>
+        <v>67.77547292154365</v>
       </c>
       <c r="Y3" t="n">
-        <v>77.44896818167052</v>
+        <v>77.60602962043734</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.904870650668967</v>
+        <v>80.74595649381547</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.13983924727312</v>
+        <v>20.79327888289287</v>
       </c>
       <c r="AB3" t="n">
-        <v>-2.84948008883714</v>
+        <v>19.06338787879408</v>
       </c>
       <c r="AC3" t="n">
-        <v>-42.8343885925066</v>
+        <v>62.76189307910601</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.28058237269808</v>
+        <v>-95.43832502902931</v>
       </c>
       <c r="AE3" t="n">
-        <v>28.75129776890247</v>
+        <v>88.78712084711859</v>
       </c>
       <c r="AF3" t="n">
-        <v>47.69225073045135</v>
+        <v>82.52457819410721</v>
       </c>
       <c r="AG3" t="n">
-        <v>52.80506584259235</v>
+        <v>55.45187786217773</v>
       </c>
     </row>
     <row r="4">
@@ -811,100 +811,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.3922442164157</v>
+        <v>-73.88293176331567</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.152433386406679</v>
+        <v>28.29759561776656</v>
       </c>
       <c r="D4" t="n">
-        <v>-21.00508034082331</v>
+        <v>-144.0076405285898</v>
       </c>
       <c r="E4" t="n">
-        <v>7.030492934973649</v>
+        <v>9.145099930135688</v>
       </c>
       <c r="F4" t="n">
-        <v>5.78090706526574</v>
+        <v>23.86083734238299</v>
       </c>
       <c r="G4" t="n">
-        <v>7.869366242040339</v>
+        <v>-28.30024619361511</v>
       </c>
       <c r="H4" t="n">
-        <v>106.0595490459163</v>
+        <v>-54.5827260385748</v>
       </c>
       <c r="I4" t="n">
-        <v>-49.67574261027993</v>
+        <v>70.25050639784232</v>
       </c>
       <c r="J4" t="n">
-        <v>-62.5756592179158</v>
+        <v>42.50734569894456</v>
       </c>
       <c r="K4" t="n">
-        <v>49.1132840583891</v>
+        <v>32.45387695373572</v>
       </c>
       <c r="L4" t="n">
-        <v>23.13533587738068</v>
+        <v>71.70871815686947</v>
       </c>
       <c r="M4" t="n">
-        <v>-7.380642333839759</v>
+        <v>-54.75912917822541</v>
       </c>
       <c r="N4" t="n">
-        <v>27.43770756651691</v>
+        <v>41.60932648725675</v>
       </c>
       <c r="O4" t="n">
-        <v>-29.41566385376158</v>
+        <v>-11.60167275601117</v>
       </c>
       <c r="P4" t="n">
-        <v>-63.29982215078937</v>
+        <v>-43.3496034461355</v>
       </c>
       <c r="Q4" t="n">
-        <v>-46.50526155147866</v>
+        <v>12.07897090652533</v>
       </c>
       <c r="R4" t="n">
-        <v>4.85967881406979</v>
+        <v>26.11965193801547</v>
       </c>
       <c r="S4" t="n">
-        <v>16.32002624603206</v>
+        <v>-65.96640736865496</v>
       </c>
       <c r="T4" t="n">
-        <v>24.09227942388993</v>
+        <v>69.17687259886361</v>
       </c>
       <c r="U4" t="n">
-        <v>-48.55744150992852</v>
+        <v>-36.57454209040297</v>
       </c>
       <c r="V4" t="n">
-        <v>6.333527618143706</v>
+        <v>-22.21155892658697</v>
       </c>
       <c r="W4" t="n">
-        <v>36.85164632420586</v>
+        <v>-9.773444890713094</v>
       </c>
       <c r="X4" t="n">
-        <v>46.71135629194212</v>
+        <v>28.29082221867294</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.43624318297666</v>
+        <v>7.578332719549371</v>
       </c>
       <c r="Z4" t="n">
-        <v>47.93233540848748</v>
+        <v>36.5351879632715</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1986822126828394</v>
+        <v>-78.90191167934459</v>
       </c>
       <c r="AB4" t="n">
-        <v>-46.29961641416444</v>
+        <v>-32.20198951460949</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.8479522908305</v>
+        <v>48.36632370875014</v>
       </c>
       <c r="AD4" t="n">
-        <v>-70.90536335884926</v>
+        <v>-71.19144606705608</v>
       </c>
       <c r="AE4" t="n">
-        <v>-75.32084795298191</v>
+        <v>7.668695226400555</v>
       </c>
       <c r="AF4" t="n">
-        <v>99.98857711316676</v>
+        <v>55.26396130527294</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.99180371982472</v>
+        <v>-11.00687504865499</v>
       </c>
     </row>
     <row r="5">
@@ -914,100 +914,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.582668369804793</v>
+        <v>-31.38238652928525</v>
       </c>
       <c r="C5" t="n">
-        <v>18.52386974722016</v>
+        <v>-1.269455966287736</v>
       </c>
       <c r="D5" t="n">
-        <v>-37.45229568953518</v>
+        <v>-91.46708762531428</v>
       </c>
       <c r="E5" t="n">
-        <v>11.80515327349793</v>
+        <v>22.44779261265813</v>
       </c>
       <c r="F5" t="n">
-        <v>-19.04599073838267</v>
+        <v>66.18343635782333</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.91641696651444</v>
+        <v>30.78539660963011</v>
       </c>
       <c r="H5" t="n">
-        <v>47.06201933124537</v>
+        <v>4.11678170970372</v>
       </c>
       <c r="I5" t="n">
-        <v>36.56431561732627</v>
+        <v>4.806006105751933</v>
       </c>
       <c r="J5" t="n">
-        <v>1.024129420443529</v>
+        <v>12.69064591590912</v>
       </c>
       <c r="K5" t="n">
-        <v>-47.89251938428051</v>
+        <v>4.936694077336231</v>
       </c>
       <c r="L5" t="n">
-        <v>-41.79975232013629</v>
+        <v>37.12395672212541</v>
       </c>
       <c r="M5" t="n">
-        <v>10.60592495082957</v>
+        <v>-16.27422084718792</v>
       </c>
       <c r="N5" t="n">
-        <v>39.17763877414257</v>
+        <v>-20.01123922565584</v>
       </c>
       <c r="O5" t="n">
-        <v>-33.26592176628848</v>
+        <v>-75.14275250233065</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.8488510406064547</v>
+        <v>-27.33164935929166</v>
       </c>
       <c r="Q5" t="n">
-        <v>-28.43834115320067</v>
+        <v>30.07181435169179</v>
       </c>
       <c r="R5" t="n">
-        <v>1.035360412344547</v>
+        <v>21.94981469625916</v>
       </c>
       <c r="S5" t="n">
-        <v>-22.34004601066449</v>
+        <v>-14.96607056104304</v>
       </c>
       <c r="T5" t="n">
-        <v>25.83741234528287</v>
+        <v>22.29595576954992</v>
       </c>
       <c r="U5" t="n">
-        <v>-11.08012644189302</v>
+        <v>11.19198362829412</v>
       </c>
       <c r="V5" t="n">
-        <v>-46.5748572755685</v>
+        <v>-19.81586458235027</v>
       </c>
       <c r="W5" t="n">
-        <v>38.62133675289211</v>
+        <v>-17.29288304643278</v>
       </c>
       <c r="X5" t="n">
-        <v>-13.23257065230035</v>
+        <v>38.36138408858577</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.947792575239324</v>
+        <v>-6.345689309198181</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4123046694655524</v>
+        <v>72.34509659611778</v>
       </c>
       <c r="AA5" t="n">
-        <v>28.67948369370803</v>
+        <v>-21.7960423745562</v>
       </c>
       <c r="AB5" t="n">
-        <v>-59.64184590722976</v>
+        <v>-46.47528180948616</v>
       </c>
       <c r="AC5" t="n">
-        <v>-108.2851241196443</v>
+        <v>19.80740545412621</v>
       </c>
       <c r="AD5" t="n">
-        <v>-17.78739657292931</v>
+        <v>-1.497062461776467</v>
       </c>
       <c r="AE5" t="n">
-        <v>30.6216146026967</v>
+        <v>-13.36693486342554</v>
       </c>
       <c r="AF5" t="n">
-        <v>-96.65389009152243</v>
+        <v>8.325032130578805</v>
       </c>
       <c r="AG5" t="n">
-        <v>-27.45819189929238</v>
+        <v>27.9832148681818</v>
       </c>
     </row>
     <row r="6">
@@ -1017,100 +1017,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46.53501527966282</v>
+        <v>7.779368579564842</v>
       </c>
       <c r="C6" t="n">
-        <v>48.48204396679092</v>
+        <v>4.749752822823075</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.19849660133433</v>
+        <v>-49.34249143495021</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.81368199222331</v>
+        <v>-8.851135222442032</v>
       </c>
       <c r="F6" t="n">
-        <v>-25.3374790206102</v>
+        <v>10.31004019210781</v>
       </c>
       <c r="G6" t="n">
-        <v>-19.55368833658189</v>
+        <v>-30.72486477218452</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.90086306813011</v>
+        <v>-6.182489417117246</v>
       </c>
       <c r="I6" t="n">
-        <v>-21.04213892606179</v>
+        <v>63.88895398816963</v>
       </c>
       <c r="J6" t="n">
-        <v>8.653455634549275</v>
+        <v>72.3677824401382</v>
       </c>
       <c r="K6" t="n">
-        <v>-43.03767930765702</v>
+        <v>10.91283541119653</v>
       </c>
       <c r="L6" t="n">
-        <v>22.60025349593145</v>
+        <v>-2.068512219584263</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.091882064455103</v>
+        <v>-37.55548847344092</v>
       </c>
       <c r="N6" t="n">
-        <v>17.95679476601547</v>
+        <v>5.941466143552097</v>
       </c>
       <c r="O6" t="n">
-        <v>-21.9975092435445</v>
+        <v>-17.90745141444305</v>
       </c>
       <c r="P6" t="n">
-        <v>1.30678374242181</v>
+        <v>-48.8940215870167</v>
       </c>
       <c r="Q6" t="n">
-        <v>-27.67165589826709</v>
+        <v>30.15515067863916</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.982108321564179</v>
+        <v>24.47255285547218</v>
       </c>
       <c r="S6" t="n">
-        <v>-16.06551310532372</v>
+        <v>13.76209880966725</v>
       </c>
       <c r="T6" t="n">
-        <v>16.70841089352699</v>
+        <v>17.05745594911518</v>
       </c>
       <c r="U6" t="n">
-        <v>-26.08898310424033</v>
+        <v>-20.15899266726585</v>
       </c>
       <c r="V6" t="n">
-        <v>6.123418257760948</v>
+        <v>-43.34674927164366</v>
       </c>
       <c r="W6" t="n">
-        <v>17.47187026922961</v>
+        <v>-34.18038734270478</v>
       </c>
       <c r="X6" t="n">
-        <v>5.810409780476091</v>
+        <v>26.05132522239086</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.99672112680013</v>
+        <v>0.9144562039787327</v>
       </c>
       <c r="Z6" t="n">
-        <v>42.77664206702749</v>
+        <v>-3.803844040604744</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.951999666940308</v>
+        <v>-55.66175168733405</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.612911369790671</v>
+        <v>-7.730972528675588</v>
       </c>
       <c r="AC6" t="n">
-        <v>-42.89692969494261</v>
+        <v>-30.13239370863417</v>
       </c>
       <c r="AD6" t="n">
-        <v>-32.12743790501193</v>
+        <v>11.12033853860472</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7787919459358368</v>
+        <v>28.16014717035756</v>
       </c>
       <c r="AF6" t="n">
-        <v>61.33032309884115</v>
+        <v>29.18758550318316</v>
       </c>
       <c r="AG6" t="n">
-        <v>56.16360813270153</v>
+        <v>26.97443166259221</v>
       </c>
     </row>
     <row r="7">
@@ -1120,100 +1120,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.98674996071718</v>
+        <v>-35.61679079324584</v>
       </c>
       <c r="C7" t="n">
-        <v>11.12457522280149</v>
+        <v>14.62297168506421</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.332894672567662</v>
+        <v>-11.93331395900259</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.20716181755313</v>
+        <v>-43.86726547672613</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.359975687817794</v>
+        <v>-8.223710853041238</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.686230597756937</v>
+        <v>-3.814907971818882</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9307708546281817</v>
+        <v>31.47749418726942</v>
       </c>
       <c r="I7" t="n">
-        <v>12.94960616968164</v>
+        <v>19.40359851858588</v>
       </c>
       <c r="J7" t="n">
-        <v>-12.73842070845065</v>
+        <v>3.107101919368907</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.580012660189995</v>
+        <v>-10.28909484271753</v>
       </c>
       <c r="L7" t="n">
-        <v>21.15831039826277</v>
+        <v>-2.771261660612022</v>
       </c>
       <c r="M7" t="n">
-        <v>10.16026860372099</v>
+        <v>-11.57220423061908</v>
       </c>
       <c r="N7" t="n">
-        <v>8.929357632133129</v>
+        <v>-5.683014427408498</v>
       </c>
       <c r="O7" t="n">
-        <v>-6.256556619917672</v>
+        <v>-6.475251307439211</v>
       </c>
       <c r="P7" t="n">
-        <v>-4.500364202438299</v>
+        <v>25.02132346021401</v>
       </c>
       <c r="Q7" t="n">
-        <v>-12.61715726923737</v>
+        <v>17.26128903749808</v>
       </c>
       <c r="R7" t="n">
-        <v>3.684157169172227</v>
+        <v>-14.34778638708495</v>
       </c>
       <c r="S7" t="n">
-        <v>17.16756692412991</v>
+        <v>-17.61357431174793</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09550264775427517</v>
+        <v>37.38737046278542</v>
       </c>
       <c r="U7" t="n">
-        <v>-5.021128301665637</v>
+        <v>-24.39209454192491</v>
       </c>
       <c r="V7" t="n">
-        <v>17.93529321158293</v>
+        <v>-18.16254685654877</v>
       </c>
       <c r="W7" t="n">
-        <v>-20.0733107166401</v>
+        <v>3.796755112078628</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6098762480324896</v>
+        <v>9.734601954452133</v>
       </c>
       <c r="Y7" t="n">
-        <v>-7.262193683560105</v>
+        <v>2.238604609877914</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.32806231442072</v>
+        <v>11.3432479230572</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.437706469078923</v>
+        <v>3.964901652707162</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.860254394815597</v>
+        <v>-7.209920622009728</v>
       </c>
       <c r="AC7" t="n">
-        <v>39.44330485864442</v>
+        <v>-13.65445011260996</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.06151612514473</v>
+        <v>-8.577243857422287</v>
       </c>
       <c r="AE7" t="n">
-        <v>-29.53845032899054</v>
+        <v>-14.97611657637187</v>
       </c>
       <c r="AF7" t="n">
-        <v>-3.389607379708552</v>
+        <v>-19.9202054305058</v>
       </c>
       <c r="AG7" t="n">
-        <v>-7.958002467933029</v>
+        <v>-46.79173440616985</v>
       </c>
     </row>
     <row r="8">
@@ -1223,100 +1223,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.48924944184543</v>
+        <v>-4.416826943731496</v>
       </c>
       <c r="C8" t="n">
-        <v>9.608809770998503</v>
+        <v>3.23525577287171</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.44989640062574</v>
+        <v>18.60709359995122</v>
       </c>
       <c r="E8" t="n">
-        <v>5.513605228665079</v>
+        <v>8.723411447674176</v>
       </c>
       <c r="F8" t="n">
-        <v>-17.96504400313155</v>
+        <v>33.45591916588418</v>
       </c>
       <c r="G8" t="n">
-        <v>4.779759167228006</v>
+        <v>-31.07366943668638</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.02062350440678</v>
+        <v>-39.76604410323177</v>
       </c>
       <c r="I8" t="n">
-        <v>2.285180348996565</v>
+        <v>57.06991642989625</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.432832966504511</v>
+        <v>34.45422462473147</v>
       </c>
       <c r="K8" t="n">
-        <v>19.56650526318887</v>
+        <v>27.07036291334653</v>
       </c>
       <c r="L8" t="n">
-        <v>3.496822045035503</v>
+        <v>2.52655765240243</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.7022485950024279</v>
+        <v>-9.032588180154415</v>
       </c>
       <c r="N8" t="n">
-        <v>-20.71158265713096</v>
+        <v>-30.30030038593743</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.242804115964512</v>
+        <v>-20.61086071523112</v>
       </c>
       <c r="P8" t="n">
-        <v>3.976586749896755</v>
+        <v>8.374688362234272</v>
       </c>
       <c r="Q8" t="n">
-        <v>-13.85484384281161</v>
+        <v>-10.86484071193182</v>
       </c>
       <c r="R8" t="n">
-        <v>-8.988632656986326</v>
+        <v>-1.846793513727414</v>
       </c>
       <c r="S8" t="n">
-        <v>6.140577867846293</v>
+        <v>32.02788460893097</v>
       </c>
       <c r="T8" t="n">
-        <v>-12.81656118732532</v>
+        <v>0.1555061850590308</v>
       </c>
       <c r="U8" t="n">
-        <v>-7.589863077769256</v>
+        <v>-28.70167483290474</v>
       </c>
       <c r="V8" t="n">
-        <v>-55.11183086041214</v>
+        <v>-7.084842866861065</v>
       </c>
       <c r="W8" t="n">
-        <v>-16.25183104824079</v>
+        <v>-22.3949076447796</v>
       </c>
       <c r="X8" t="n">
-        <v>25.41085739419367</v>
+        <v>18.42447698849087</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.206758649527846</v>
+        <v>11.43713956743034</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.14300304411806</v>
+        <v>-55.2187393064802</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.60740774831814</v>
+        <v>12.04575113950728</v>
       </c>
       <c r="AB8" t="n">
-        <v>-10.78690159459689</v>
+        <v>-19.91791612710212</v>
       </c>
       <c r="AC8" t="n">
-        <v>29.38456574208069</v>
+        <v>-13.62074545627233</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.54621777223033</v>
+        <v>-12.8202376765825</v>
       </c>
       <c r="AE8" t="n">
-        <v>-18.23291508216822</v>
+        <v>3.352862952805269</v>
       </c>
       <c r="AF8" t="n">
-        <v>-27.20799822106075</v>
+        <v>-9.866913273639126</v>
       </c>
       <c r="AG8" t="n">
-        <v>-2.449311035846407</v>
+        <v>-55.06970676445759</v>
       </c>
     </row>
     <row r="9">
@@ -1326,100 +1326,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.49496684235066</v>
+        <v>34.56268372602916</v>
       </c>
       <c r="C9" t="n">
-        <v>8.002707266954197</v>
+        <v>-16.74989943004325</v>
       </c>
       <c r="D9" t="n">
-        <v>-26.75313489176094</v>
+        <v>18.95614455482551</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.250806967225208</v>
+        <v>29.97150672378306</v>
       </c>
       <c r="F9" t="n">
-        <v>10.70135486992558</v>
+        <v>-24.41554421636427</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2694866150719776</v>
+        <v>-15.60838431507122</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.19380814879632</v>
+        <v>-40.76043488440768</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.862664499642952</v>
+        <v>-4.009036950605228</v>
       </c>
       <c r="J9" t="n">
-        <v>-15.67302133662194</v>
+        <v>-32.61074884064791</v>
       </c>
       <c r="K9" t="n">
-        <v>2.503854430344235</v>
+        <v>-5.135766232726506</v>
       </c>
       <c r="L9" t="n">
-        <v>9.999895788245759</v>
+        <v>-14.69859792534913</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3819767359792123</v>
+        <v>-16.36245298521967</v>
       </c>
       <c r="N9" t="n">
-        <v>-8.241347438484862</v>
+        <v>37.56973397417305</v>
       </c>
       <c r="O9" t="n">
-        <v>6.955815385240109</v>
+        <v>0.7173466688611722</v>
       </c>
       <c r="P9" t="n">
-        <v>5.105716995113532</v>
+        <v>7.149860279105485</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.96299410388671</v>
+        <v>4.543508859401213</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.150068886805616</v>
+        <v>29.58550897156391</v>
       </c>
       <c r="S9" t="n">
-        <v>21.67492883951738</v>
+        <v>-54.51695654137476</v>
       </c>
       <c r="T9" t="n">
-        <v>-20.78086666949311</v>
+        <v>-17.18390357220444</v>
       </c>
       <c r="U9" t="n">
-        <v>3.479957753191436</v>
+        <v>2.716924945150564</v>
       </c>
       <c r="V9" t="n">
-        <v>37.96968341456311</v>
+        <v>27.9152079413453</v>
       </c>
       <c r="W9" t="n">
-        <v>41.57539626554777</v>
+        <v>10.92434996022136</v>
       </c>
       <c r="X9" t="n">
-        <v>-17.55393204769441</v>
+        <v>16.38342972833345</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.341973516833267</v>
+        <v>5.610137297475578</v>
       </c>
       <c r="Z9" t="n">
-        <v>-3.818643986825311</v>
+        <v>-11.77123237844642</v>
       </c>
       <c r="AA9" t="n">
-        <v>-16.34669710498966</v>
+        <v>-1.085850183134235</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.253497119002281</v>
+        <v>-50.64779089630522</v>
       </c>
       <c r="AC9" t="n">
-        <v>62.66439326177626</v>
+        <v>12.23019208876486</v>
       </c>
       <c r="AD9" t="n">
-        <v>-4.733434317031565</v>
+        <v>5.565139329595138</v>
       </c>
       <c r="AE9" t="n">
-        <v>-22.75248613278927</v>
+        <v>2.389690558428301</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.6284135692684575</v>
+        <v>22.0650999923937</v>
       </c>
       <c r="AG9" t="n">
-        <v>25.03572139268672</v>
+        <v>11.67992147149997</v>
       </c>
     </row>
   </sheetData>
@@ -1610,100 +1610,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-46.36573807192075</v>
+        <v>-5.889677827970597</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.09141580095672</v>
+        <v>-19.01968228255629</v>
       </c>
       <c r="D2" t="n">
-        <v>2.542187996891858</v>
+        <v>-25.91613679479004</v>
       </c>
       <c r="E2" t="n">
-        <v>-28.48016819357103</v>
+        <v>-16.78443922081552</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.88412573402476</v>
+        <v>-25.68191756395149</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.59675245465275</v>
+        <v>-28.04380091444395</v>
       </c>
       <c r="H2" t="n">
-        <v>-31.42713814082368</v>
+        <v>-41.63915374149403</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.63855840262382</v>
+        <v>-45.09313220209217</v>
       </c>
       <c r="J2" t="n">
-        <v>-42.56900040986375</v>
+        <v>-26.82860391917204</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7220376758172211</v>
+        <v>-18.80643220227141</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.2920209936386</v>
+        <v>-27.64268778621457</v>
       </c>
       <c r="M2" t="n">
-        <v>-21.40404173465655</v>
+        <v>-23.19139990081038</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.269826691173205</v>
+        <v>-22.31191508474133</v>
       </c>
       <c r="O2" t="n">
-        <v>-26.82304138985577</v>
+        <v>-9.518245754564685</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.025412683853819</v>
+        <v>-43.2477900650651</v>
       </c>
       <c r="Q2" t="n">
-        <v>-11.35583746151756</v>
+        <v>-24.1119783110111</v>
       </c>
       <c r="R2" t="n">
-        <v>11.32049157766404</v>
+        <v>-9.014337856787467</v>
       </c>
       <c r="S2" t="n">
-        <v>-26.832374526207</v>
+        <v>-42.8436909614235</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.90191958495786</v>
+        <v>-16.13012613960111</v>
       </c>
       <c r="U2" t="n">
-        <v>-43.99338173039376</v>
+        <v>-30.18001490597245</v>
       </c>
       <c r="V2" t="n">
-        <v>-41.8837321397928</v>
+        <v>-20.68169089403379</v>
       </c>
       <c r="W2" t="n">
-        <v>-29.60583533201252</v>
+        <v>-22.54527244131601</v>
       </c>
       <c r="X2" t="n">
-        <v>-44.32146707669312</v>
+        <v>-40.66122901706424</v>
       </c>
       <c r="Y2" t="n">
-        <v>-42.87382735310749</v>
+        <v>6.834686548012916</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.117281532142449</v>
+        <v>-38.32334954743855</v>
       </c>
       <c r="AA2" t="n">
-        <v>-4.744144349263484</v>
+        <v>-24.2720721911451</v>
       </c>
       <c r="AB2" t="n">
-        <v>-24.69942300234415</v>
+        <v>-37.02192890546311</v>
       </c>
       <c r="AC2" t="n">
-        <v>-45.2782348832372</v>
+        <v>-10.77350028999252</v>
       </c>
       <c r="AD2" t="n">
-        <v>-9.556096179783815</v>
+        <v>-18.63190397098134</v>
       </c>
       <c r="AE2" t="n">
-        <v>-17.87792363938292</v>
+        <v>-38.78090676530869</v>
       </c>
       <c r="AF2" t="n">
-        <v>-28.28189093334585</v>
+        <v>-9.447914191497825</v>
       </c>
       <c r="AG2" t="n">
-        <v>-13.52125007873075</v>
+        <v>13.49340066322968</v>
       </c>
     </row>
     <row r="3">
@@ -1713,100 +1713,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.584492817648514</v>
+        <v>-6.660514159054503</v>
       </c>
       <c r="C3" t="n">
-        <v>2.388008476395489</v>
+        <v>-14.16581790081387</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.095740810952896</v>
+        <v>-28.3587432655096</v>
       </c>
       <c r="E3" t="n">
-        <v>4.96360551635892</v>
+        <v>-10.50582604031594</v>
       </c>
       <c r="F3" t="n">
-        <v>6.597528187817435</v>
+        <v>-8.493312353697871</v>
       </c>
       <c r="G3" t="n">
-        <v>1.485800507816876</v>
+        <v>-8.988538112377251</v>
       </c>
       <c r="H3" t="n">
-        <v>14.65522940113157</v>
+        <v>-7.745533732484319</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7954862640187665</v>
+        <v>-12.05347459523562</v>
       </c>
       <c r="J3" t="n">
-        <v>7.799372319738253</v>
+        <v>-13.76458821493226</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.64283233078467</v>
+        <v>-2.930400404125104</v>
       </c>
       <c r="L3" t="n">
-        <v>2.446282902901819</v>
+        <v>-33.9284114378847</v>
       </c>
       <c r="M3" t="n">
-        <v>1.594058602747988</v>
+        <v>-5.452298004931978</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4629690818867381</v>
+        <v>-30.65811774384015</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.358928805786972</v>
+        <v>0.5547339696361846</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9795930813773286</v>
+        <v>-8.537296828421239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.519098656653228</v>
+        <v>-11.64529461648579</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.429218103771894</v>
+        <v>-35.85214516465606</v>
       </c>
       <c r="S3" t="n">
-        <v>6.059249940271886</v>
+        <v>-11.3091877748688</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.711251041152975</v>
+        <v>-4.400253424014996</v>
       </c>
       <c r="U3" t="n">
-        <v>1.021249764830851</v>
+        <v>-19.23042066620863</v>
       </c>
       <c r="V3" t="n">
-        <v>2.411820410497807</v>
+        <v>-23.10308808832105</v>
       </c>
       <c r="W3" t="n">
-        <v>-3.406453137526789</v>
+        <v>-19.11426900438007</v>
       </c>
       <c r="X3" t="n">
-        <v>10.47339027781171</v>
+        <v>-13.2435778594226</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.584356644235405</v>
+        <v>6.900267798035613</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.057719379118899</v>
+        <v>-8.190264648298601</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.165298865068701</v>
+        <v>-7.69271159477882</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.624371115798384</v>
+        <v>-7.83474543940418</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.794445735729443</v>
+        <v>-8.288605630365423</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.28157134810377</v>
+        <v>-25.68291475380481</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.06383079499900313</v>
+        <v>-7.742601737431305</v>
       </c>
       <c r="AF3" t="n">
-        <v>-6.870210205653416</v>
+        <v>0.1525746093490923</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.773954557899874</v>
+        <v>2.457905563971118</v>
       </c>
     </row>
     <row r="4">
@@ -1816,100 +1816,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.13777345062679</v>
+        <v>-0.4869529859182305</v>
       </c>
       <c r="C4" t="n">
-        <v>13.78811229461376</v>
+        <v>-5.102188919664652</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.404354272217986</v>
+        <v>-19.19393901883346</v>
       </c>
       <c r="E4" t="n">
-        <v>2.940301357284076</v>
+        <v>-2.668732357835737</v>
       </c>
       <c r="F4" t="n">
-        <v>2.613127456159971</v>
+        <v>-5.626424289761107</v>
       </c>
       <c r="G4" t="n">
-        <v>7.457803154303902</v>
+        <v>-18.79309797096139</v>
       </c>
       <c r="H4" t="n">
-        <v>5.925830708351027</v>
+        <v>-19.88371064295323</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1388354436905494</v>
+        <v>-21.1549058625582</v>
       </c>
       <c r="J4" t="n">
-        <v>6.342411830343072</v>
+        <v>-2.677680332136996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1098108597237482</v>
+        <v>-0.0667544071816238</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.803402933451277</v>
+        <v>-15.50846883278562</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02811315831437321</v>
+        <v>-1.079106383136037</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.846548791999212</v>
+        <v>-12.86864602787151</v>
       </c>
       <c r="O4" t="n">
-        <v>11.41213317500733</v>
+        <v>-0.0918669535330226</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2094967293558191</v>
+        <v>-14.94937788757118</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.88031348542463</v>
+        <v>-4.079280045108145</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.059718242612675</v>
+        <v>6.885609171992725</v>
       </c>
       <c r="S4" t="n">
-        <v>19.73610878504447</v>
+        <v>-23.039847458973</v>
       </c>
       <c r="T4" t="n">
-        <v>2.106020189736565</v>
+        <v>-1.022094387193002</v>
       </c>
       <c r="U4" t="n">
-        <v>6.639105963433894</v>
+        <v>-30.96749262793518</v>
       </c>
       <c r="V4" t="n">
-        <v>15.44062852952847</v>
+        <v>-2.974341183684977</v>
       </c>
       <c r="W4" t="n">
-        <v>11.81707821947107</v>
+        <v>-11.83402137326791</v>
       </c>
       <c r="X4" t="n">
-        <v>17.44893750326647</v>
+        <v>-26.33922812973768</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.514708441728499</v>
+        <v>2.27020099893445</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.508621808238849</v>
+        <v>-6.528979577400642</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.8953221341592966</v>
+        <v>-12.20373810659108</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.20827628972836</v>
+        <v>-16.50275569217447</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.89498789472734</v>
+        <v>-0.02996787737738691</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06792566692160702</v>
+        <v>-19.61078349936752</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.286007402390525</v>
+        <v>-25.36161424337058</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.67572157086974</v>
+        <v>-1.510070255778707</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.52040322256692</v>
+        <v>6.816980883010276</v>
       </c>
     </row>
     <row r="5">
@@ -1919,100 +1919,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26.47117468419207</v>
+        <v>-4.318507524981605</v>
       </c>
       <c r="C5" t="n">
-        <v>-25.4675992770971</v>
+        <v>5.464705924518189</v>
       </c>
       <c r="D5" t="n">
-        <v>1.074987434683171</v>
+        <v>-17.79799439535948</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.60021614259746</v>
+        <v>-7.437072567812982</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.290011320318891</v>
+        <v>-4.491486340573307</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.61418287793293</v>
+        <v>-6.204528770314313</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.482312615709171</v>
+        <v>-30.04560107505278</v>
       </c>
       <c r="I5" t="n">
-        <v>1.864755444869272</v>
+        <v>-29.28135876613801</v>
       </c>
       <c r="J5" t="n">
-        <v>-13.60606771244047</v>
+        <v>-2.953839387130792</v>
       </c>
       <c r="K5" t="n">
-        <v>2.217532302999368</v>
+        <v>12.31722023856453</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.8920829483722023</v>
+        <v>-16.78355187546531</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.435120906181726</v>
+        <v>-11.58326366635447</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.940067974999018</v>
+        <v>-11.46439781356928</v>
       </c>
       <c r="O5" t="n">
-        <v>-14.13991230364183</v>
+        <v>-2.064824325317849</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.7588733129659899</v>
+        <v>-20.80907668705118</v>
       </c>
       <c r="Q5" t="n">
-        <v>-4.816789400896661</v>
+        <v>-7.591421689351794</v>
       </c>
       <c r="R5" t="n">
-        <v>3.887834766401612</v>
+        <v>-15.45071941829142</v>
       </c>
       <c r="S5" t="n">
-        <v>-8.9729883550003</v>
+        <v>-22.79121969855835</v>
       </c>
       <c r="T5" t="n">
-        <v>-10.13756390217098</v>
+        <v>-3.673709038716839</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.944493563194231</v>
+        <v>1.606692711174251</v>
       </c>
       <c r="V5" t="n">
-        <v>-13.61818976236656</v>
+        <v>-18.71556951912813</v>
       </c>
       <c r="W5" t="n">
-        <v>-2.900841734157455</v>
+        <v>-9.065487052559543</v>
       </c>
       <c r="X5" t="n">
-        <v>-16.83177407984526</v>
+        <v>-27.71473670964582</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.78471827724197</v>
+        <v>4.469523067858385</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.2707776462600509</v>
+        <v>-20.87058395098548</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.8258483408953416</v>
+        <v>-2.759316274432042</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.137796807937956</v>
+        <v>-32.13800243091777</v>
       </c>
       <c r="AC5" t="n">
-        <v>-19.03405344086139</v>
+        <v>-0.3217190022070371</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.274762176881848</v>
+        <v>-9.972205910967466</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.086490366084278</v>
+        <v>-22.02812576865239</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2.352814945445321</v>
+        <v>-3.202721635673448</v>
       </c>
       <c r="AG5" t="n">
-        <v>-7.154839757361465</v>
+        <v>10.44981948975377</v>
       </c>
     </row>
     <row r="6">
@@ -2022,100 +2022,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.423626556763739</v>
+        <v>-4.423878281080471</v>
       </c>
       <c r="C6" t="n">
-        <v>4.140952522795922</v>
+        <v>-8.820188229198081</v>
       </c>
       <c r="D6" t="n">
-        <v>4.083666241400428</v>
+        <v>-19.00653198344539</v>
       </c>
       <c r="E6" t="n">
-        <v>23.76352936599872</v>
+        <v>-10.45467568453523</v>
       </c>
       <c r="F6" t="n">
-        <v>7.907646817831393</v>
+        <v>-5.824303782774064</v>
       </c>
       <c r="G6" t="n">
-        <v>11.04513722223292</v>
+        <v>-19.67458227778677</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.713883064802536</v>
+        <v>-21.1379832041412</v>
       </c>
       <c r="I6" t="n">
-        <v>1.638636302779612</v>
+        <v>-18.85062675850527</v>
       </c>
       <c r="J6" t="n">
-        <v>12.24463064642244</v>
+        <v>-13.20785060165756</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.625872768802929</v>
+        <v>-15.42577568491635</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.757200419266315</v>
+        <v>-18.90820214733133</v>
       </c>
       <c r="M6" t="n">
-        <v>2.160747771942287</v>
+        <v>-11.4966546153099</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.303565115750014</v>
+        <v>-19.35373842006404</v>
       </c>
       <c r="O6" t="n">
-        <v>16.79698688996303</v>
+        <v>-2.045172445400398</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4335241791171957</v>
+        <v>-13.13917253777263</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.488010658048189</v>
+        <v>-12.74517569242804</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.007501129920374827</v>
+        <v>-9.063258222439037</v>
       </c>
       <c r="S6" t="n">
-        <v>2.565668494199705</v>
+        <v>-23.08085297546252</v>
       </c>
       <c r="T6" t="n">
-        <v>1.394557436768122</v>
+        <v>-7.616553071465659</v>
       </c>
       <c r="U6" t="n">
-        <v>12.88581861054341</v>
+        <v>-22.30461813800802</v>
       </c>
       <c r="V6" t="n">
-        <v>-11.1969450812112</v>
+        <v>-17.1634799300244</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.2897332795769013</v>
+        <v>-6.54653650447577</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6790779670914451</v>
+        <v>-4.261524714580502</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.48981897777202</v>
+        <v>3.328676077939872</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3047320296323118</v>
+        <v>-14.56041198926945</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.4934163578317722</v>
+        <v>-13.3093287471813</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.57977243688969</v>
+        <v>-11.90975612591552</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.11389402120678</v>
+        <v>-2.338936574165759</v>
       </c>
       <c r="AD6" t="n">
-        <v>-3.873620776321025</v>
+        <v>-16.58668658191458</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.505122531801617</v>
+        <v>-23.48031865610893</v>
       </c>
       <c r="AF6" t="n">
-        <v>27.81937608270999</v>
+        <v>-1.364849814447015</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.444684065543536</v>
+        <v>2.87368806332825</v>
       </c>
     </row>
     <row r="7">
@@ -2125,100 +2125,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8402247163832406</v>
+        <v>-0.4805588572637552</v>
       </c>
       <c r="C7" t="n">
-        <v>4.546192081268565</v>
+        <v>-4.494147977118634</v>
       </c>
       <c r="D7" t="n">
-        <v>2.159018408239127</v>
+        <v>13.68991521143431</v>
       </c>
       <c r="E7" t="n">
-        <v>9.291874503006007</v>
+        <v>-0.7076060482095058</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.062842397102441</v>
+        <v>-6.671251261506177</v>
       </c>
       <c r="G7" t="n">
-        <v>14.07961874256115</v>
+        <v>2.116841453523968</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.838450176370139</v>
+        <v>19.85921605770147</v>
       </c>
       <c r="I7" t="n">
-        <v>1.842946395731291</v>
+        <v>11.6277924364682</v>
       </c>
       <c r="J7" t="n">
-        <v>9.892836706812759</v>
+        <v>-7.752269183597092</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.546390448492913</v>
+        <v>7.152800731813271</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.315171947186298</v>
+        <v>14.03693519496964</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.987238599140291</v>
+        <v>5.721797196130005</v>
       </c>
       <c r="N7" t="n">
-        <v>0.116632809957163</v>
+        <v>2.82735072823429</v>
       </c>
       <c r="O7" t="n">
-        <v>5.362022149406087</v>
+        <v>0.9274001005991716</v>
       </c>
       <c r="P7" t="n">
-        <v>1.595845214562598</v>
+        <v>21.27894337259278</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2162799414626329</v>
+        <v>0.1313264984857229</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2602682289062486</v>
+        <v>-10.78855796496504</v>
       </c>
       <c r="S7" t="n">
-        <v>4.585214087751053</v>
+        <v>16.28430247657861</v>
       </c>
       <c r="T7" t="n">
-        <v>-4.426350774138803</v>
+        <v>-6.312749109344145</v>
       </c>
       <c r="U7" t="n">
-        <v>1.169645677055022</v>
+        <v>16.36464981894853</v>
       </c>
       <c r="V7" t="n">
-        <v>-5.591571205895488</v>
+        <v>7.470630787312349</v>
       </c>
       <c r="W7" t="n">
-        <v>2.72822655674149</v>
+        <v>-0.5100901147458108</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.497048672167621</v>
+        <v>20.18440929620548</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.474755490586228</v>
+        <v>4.531012600592844</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.444655121195549</v>
+        <v>11.54728279315551</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.1355977025152076</v>
+        <v>6.393180682397463</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.570590656043731</v>
+        <v>10.2011541028124</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5585428548814776</v>
+        <v>-2.261087839923179</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.339398187525675</v>
+        <v>5.223722142944013</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.708873516592656</v>
+        <v>14.03922954186011</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.804720973626716</v>
+        <v>-0.5559248651885594</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.60663132361997</v>
+        <v>-6.922801288606278</v>
       </c>
     </row>
     <row r="8">
@@ -2228,100 +2228,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.84354899575413</v>
+        <v>-0.3733074994909786</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.36915299453715</v>
+        <v>6.943246818650901</v>
       </c>
       <c r="D8" t="n">
-        <v>28.44150546085375</v>
+        <v>8.300205457449257</v>
       </c>
       <c r="E8" t="n">
-        <v>20.33013632187851</v>
+        <v>-2.39548205773905</v>
       </c>
       <c r="F8" t="n">
-        <v>4.081700178681468</v>
+        <v>6.644121801066319</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.5755828328408</v>
+        <v>-6.273075825096422</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.25885049990364</v>
+        <v>2.611716995104477</v>
       </c>
       <c r="I8" t="n">
-        <v>0.953625921096202</v>
+        <v>-3.025704222914616</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.14582402895371</v>
+        <v>-3.27917142276451</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.77406147695155</v>
+        <v>15.53916339181521</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.229404056822981</v>
+        <v>4.450930200798661</v>
       </c>
       <c r="M8" t="n">
-        <v>-4.932427776858819</v>
+        <v>-5.234765176304649</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2816532390548512</v>
+        <v>10.42856462407604</v>
       </c>
       <c r="O8" t="n">
-        <v>7.699102623068204</v>
+        <v>-2.375689071796315</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.4869444558241954</v>
+        <v>-2.612945038481316</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.440784191033148</v>
+        <v>0.8425288485653877</v>
       </c>
       <c r="R8" t="n">
-        <v>2.533507822713672</v>
+        <v>-4.493736758963816</v>
       </c>
       <c r="S8" t="n">
-        <v>-3.048606785897855</v>
+        <v>3.847884211151949</v>
       </c>
       <c r="T8" t="n">
-        <v>10.53080483003856</v>
+        <v>-8.224441871229295</v>
       </c>
       <c r="U8" t="n">
-        <v>1.468659875118645</v>
+        <v>18.67943817107096</v>
       </c>
       <c r="V8" t="n">
-        <v>-18.77263919716977</v>
+        <v>12.74789600399145</v>
       </c>
       <c r="W8" t="n">
-        <v>19.38168138331074</v>
+        <v>1.0996900046096</v>
       </c>
       <c r="X8" t="n">
-        <v>-12.28674882963993</v>
+        <v>8.975099490956204</v>
       </c>
       <c r="Y8" t="n">
-        <v>-4.479753046610683</v>
+        <v>-2.767280594413467</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.5051522970664112</v>
+        <v>3.672632710520224</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.4845902464795596</v>
+        <v>2.887659022362051</v>
       </c>
       <c r="AB8" t="n">
-        <v>-5.809365118131852</v>
+        <v>11.40018447238763</v>
       </c>
       <c r="AC8" t="n">
-        <v>-10.0183401903563</v>
+        <v>3.066711282864712</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.528058608818809</v>
+        <v>12.30003643990887</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1427713865774986</v>
+        <v>6.52442241140766</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.05323329912032</v>
+        <v>-3.104147592827913</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.713489887013804</v>
+        <v>2.702575574099515</v>
       </c>
     </row>
     <row r="9">
@@ -2331,100 +2331,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.96925865543106</v>
+        <v>-4.207567069128427</v>
       </c>
       <c r="C9" t="n">
-        <v>34.24298554952613</v>
+        <v>8.488294998085383</v>
       </c>
       <c r="D9" t="n">
-        <v>4.88191044962069</v>
+        <v>-10.98084343700559</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.553243437235967</v>
+        <v>-13.81630886317685</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9486813643715</v>
+        <v>-4.217467389090383</v>
       </c>
       <c r="G9" t="n">
-        <v>4.23651429462633</v>
+        <v>-6.186537642520388</v>
       </c>
       <c r="H9" t="n">
-        <v>7.205249263944535</v>
+        <v>4.081604439846929</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4448980077174133</v>
+        <v>-1.204834131754791</v>
       </c>
       <c r="J9" t="n">
-        <v>11.50989154270687</v>
+        <v>-13.29328158840064</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.525198486828109</v>
+        <v>6.143268845378</v>
       </c>
       <c r="L9" t="n">
-        <v>1.03705547678942</v>
+        <v>-13.14233155370369</v>
       </c>
       <c r="M9" t="n">
-        <v>1.383373859730935</v>
+        <v>-3.663565830588753</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.6693093937062855</v>
+        <v>-9.571532756562114</v>
       </c>
       <c r="O9" t="n">
-        <v>3.621334096224456</v>
+        <v>-0.335076758681277</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.251934677829434</v>
+        <v>-8.060419197564279</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.565409104981919</v>
+        <v>-8.64623460237417</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.65593452676068</v>
+        <v>0.640568810662722</v>
       </c>
       <c r="S9" t="n">
-        <v>6.225807998857035</v>
+        <v>-7.345420456337419</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3408667258044604</v>
+        <v>-8.096720310006095</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5608408044388922</v>
+        <v>5.642624956782615</v>
       </c>
       <c r="V9" t="n">
-        <v>19.42554987308913</v>
+        <v>5.564568085816046</v>
       </c>
       <c r="W9" t="n">
-        <v>-11.99767631369022</v>
+        <v>-8.179119787986766</v>
       </c>
       <c r="X9" t="n">
-        <v>25.32458505363416</v>
+        <v>-10.78716268038287</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.727771012224133</v>
+        <v>-1.383096820550396</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2233827775166302</v>
+        <v>-4.659434082770188</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1.135387452862349</v>
+        <v>-4.033285986786558</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.280399164953957</v>
+        <v>-10.10626671560215</v>
       </c>
       <c r="AC9" t="n">
-        <v>17.24968294325889</v>
+        <v>-7.46063639144976</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7233253957955416</v>
+        <v>6.909728980188512</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.66072387007856</v>
+        <v>-4.990619579529604</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.114777897145386</v>
+        <v>0.6151880106370022</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.94290805549337</v>
+        <v>1.69191049140891</v>
       </c>
     </row>
     <row r="10">
@@ -2434,100 +2434,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.53915724627017</v>
+        <v>2.889543117351214</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.922609415891571</v>
+        <v>4.653866475444846</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.843021731587652</v>
+        <v>4.035770941058182</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.11078599285322</v>
+        <v>-5.442541192819443</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.351276916241745</v>
+        <v>-5.054405852616187</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.272818917464926</v>
+        <v>-27.71295986385867</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.107581724595071</v>
+        <v>19.08978182133482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1989618206526046</v>
+        <v>6.944586169574232</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.95718032645737</v>
+        <v>0.2805787851186206</v>
       </c>
       <c r="K10" t="n">
-        <v>1.148548108380713</v>
+        <v>-7.776711642866668</v>
       </c>
       <c r="L10" t="n">
-        <v>-4.834156460694542</v>
+        <v>14.49006221804432</v>
       </c>
       <c r="M10" t="n">
-        <v>-4.982187841639091</v>
+        <v>-0.09250036882718579</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.637003618746856</v>
+        <v>-5.678274725201945</v>
       </c>
       <c r="O10" t="n">
-        <v>-13.67289581377614</v>
+        <v>-1.491052551953796</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.365792199332209</v>
+        <v>16.30869357727084</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3.777731048352509</v>
+        <v>1.744920367265698</v>
       </c>
       <c r="R10" t="n">
-        <v>2.494345082444563</v>
+        <v>14.36271205930587</v>
       </c>
       <c r="S10" t="n">
-        <v>-10.99068515432032</v>
+        <v>11.87297841409851</v>
       </c>
       <c r="T10" t="n">
-        <v>-4.750199951717436</v>
+        <v>-7.835146489367925</v>
       </c>
       <c r="U10" t="n">
-        <v>-17.11269995070148</v>
+        <v>14.4807550186575</v>
       </c>
       <c r="V10" t="n">
-        <v>-8.028404096409396</v>
+        <v>24.61724556296972</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.7895100858918106</v>
+        <v>0.07973185697328901</v>
       </c>
       <c r="X10" t="n">
-        <v>-10.25149377176783</v>
+        <v>11.49931114099594</v>
       </c>
       <c r="Y10" t="n">
-        <v>-20.42226687400652</v>
+        <v>1.703287417901526</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.622718509819826</v>
+        <v>10.50306972226475</v>
       </c>
       <c r="AA10" t="n">
-        <v>-2.236732265479269</v>
+        <v>-6.026956417548446</v>
       </c>
       <c r="AB10" t="n">
-        <v>-8.484508881600307</v>
+        <v>9.180194353326479</v>
       </c>
       <c r="AC10" t="n">
-        <v>-19.72095378957522</v>
+        <v>1.507383633329839</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.569833306206677</v>
+        <v>-4.221586419009332</v>
       </c>
       <c r="AE10" t="n">
-        <v>-5.88330418209445</v>
+        <v>13.32670239921237</v>
       </c>
       <c r="AF10" t="n">
-        <v>-10.594050983466</v>
+        <v>0.5592781124734744</v>
       </c>
       <c r="AG10" t="n">
-        <v>-4.63726260667846</v>
+        <v>-1.477786780465415</v>
       </c>
     </row>
     <row r="11">
@@ -2537,100 +2537,100 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.953643421634204</v>
+        <v>-1.498060415278824</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.289682632842545</v>
+        <v>-12.48305449635686</v>
       </c>
       <c r="D11" t="n">
-        <v>-17.47848648766578</v>
+        <v>1.185276337638605</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.777222432421979</v>
+        <v>-1.325110942191733</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.926930504390109</v>
+        <v>2.768065473496582</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.27572904326676</v>
+        <v>-15.9254628819446</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.8404277213584281</v>
+        <v>13.5833500874487</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.017946332341911</v>
+        <v>24.93246624677009</v>
       </c>
       <c r="J11" t="n">
-        <v>3.317649169080546</v>
+        <v>-17.89466921354035</v>
       </c>
       <c r="K11" t="n">
-        <v>3.385722888332573</v>
+        <v>-16.10058126356034</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.083975792429655</v>
+        <v>2.59652361086521</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.07130725730773549</v>
+        <v>5.866946037215603</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.321314301965584</v>
+        <v>-14.45823353933753</v>
       </c>
       <c r="O11" t="n">
-        <v>-19.56294483417291</v>
+        <v>-0.9743499679676031</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1715195848751403</v>
+        <v>23.06474151556858</v>
       </c>
       <c r="Q11" t="n">
-        <v>-2.12099956770045</v>
+        <v>2.50230623050855</v>
       </c>
       <c r="R11" t="n">
-        <v>3.908063613570234</v>
+        <v>2.251332551090393</v>
       </c>
       <c r="S11" t="n">
-        <v>3.094867673410281</v>
+        <v>21.74536408155679</v>
       </c>
       <c r="T11" t="n">
-        <v>-11.51033761545208</v>
+        <v>-11.43261660070728</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7532400004830969</v>
+        <v>13.74048558255311</v>
       </c>
       <c r="V11" t="n">
-        <v>1.473190247305466</v>
+        <v>15.03194641651792</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.78917570481004</v>
+        <v>-5.903671679477687</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.50901542042281</v>
+        <v>23.36686355760631</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.595017555312424</v>
+        <v>7.007186204333699</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.8396644415960751</v>
+        <v>13.6159591813709</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08785348977237016</v>
+        <v>-3.22838835375294</v>
       </c>
       <c r="AB11" t="n">
-        <v>-4.204789852049606</v>
+        <v>23.6882255721488</v>
       </c>
       <c r="AC11" t="n">
-        <v>-6.973031097516992</v>
+        <v>-4.525628997221832</v>
       </c>
       <c r="AD11" t="n">
-        <v>-3.403677931921587</v>
+        <v>-3.688057552944756</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7697269753601098</v>
+        <v>15.01216818561207</v>
       </c>
       <c r="AF11" t="n">
-        <v>-23.74346064192567</v>
+        <v>0.4965543426194064</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.778646898749954</v>
+        <v>-7.918931701807307</v>
       </c>
     </row>
     <row r="12">
@@ -2640,100 +2640,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-24.50867252767569</v>
+        <v>-3.256795082112555</v>
       </c>
       <c r="C12" t="n">
-        <v>-27.91174238485929</v>
+        <v>0.7668365217776663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3951848827803567</v>
+        <v>9.781166160153921</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.48404429303821</v>
+        <v>0.8151978482512104</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.827814579108388</v>
+        <v>-1.102497451983024</v>
       </c>
       <c r="G12" t="n">
-        <v>-22.25469961515105</v>
+        <v>8.160407508776753</v>
       </c>
       <c r="H12" t="n">
-        <v>-15.98117202153902</v>
+        <v>23.21364164518547</v>
       </c>
       <c r="I12" t="n">
-        <v>-2.772539777576411</v>
+        <v>12.01167692575347</v>
       </c>
       <c r="J12" t="n">
-        <v>-21.31341650426102</v>
+        <v>-0.7762717342987786</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.102766378680121</v>
+        <v>11.94066395243082</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.125204451471246</v>
+        <v>10.99328193693078</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.934665653923546</v>
+        <v>0.2119469368456774</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.107967346054607</v>
+        <v>-0.6221693190591369</v>
       </c>
       <c r="O12" t="n">
-        <v>-12.85376186696006</v>
+        <v>0.7719371192156148</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.733772088817201</v>
+        <v>19.71374611208983</v>
       </c>
       <c r="Q12" t="n">
-        <v>-5.615177606868163</v>
+        <v>-3.97819231387966</v>
       </c>
       <c r="R12" t="n">
-        <v>5.5710664306383</v>
+        <v>-7.442216097529174</v>
       </c>
       <c r="S12" t="n">
-        <v>-12.99634749262711</v>
+        <v>21.40840562647401</v>
       </c>
       <c r="T12" t="n">
-        <v>-1.268334538669676</v>
+        <v>-0.3912999770295896</v>
       </c>
       <c r="U12" t="n">
-        <v>-23.60840625319736</v>
+        <v>8.998182652138151</v>
       </c>
       <c r="V12" t="n">
-        <v>-24.39608946817081</v>
+        <v>17.27293210192869</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.324399320098319</v>
+        <v>7.833376178807262</v>
       </c>
       <c r="X12" t="n">
-        <v>-20.7031222797307</v>
+        <v>35.76115446495916</v>
       </c>
       <c r="Y12" t="n">
-        <v>-16.77576019992617</v>
+        <v>-0.7264576812886807</v>
       </c>
       <c r="Z12" t="n">
-        <v>-3.767039164451576</v>
+        <v>8.476028677358576</v>
       </c>
       <c r="AA12" t="n">
-        <v>-2.631871565572396</v>
+        <v>7.085934887852588</v>
       </c>
       <c r="AB12" t="n">
-        <v>-11.38578148096303</v>
+        <v>15.36429952148861</v>
       </c>
       <c r="AC12" t="n">
-        <v>-23.03839625925147</v>
+        <v>0.6498178801183701</v>
       </c>
       <c r="AD12" t="n">
-        <v>-2.728367979631594</v>
+        <v>2.845986961120753</v>
       </c>
       <c r="AE12" t="n">
-        <v>-4.416691366701559</v>
+        <v>28.6182385307169</v>
       </c>
       <c r="AF12" t="n">
-        <v>-4.486083032116029</v>
+        <v>-2.498592705821455</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7804654080562136</v>
+        <v>-7.063712177986278</v>
       </c>
     </row>
     <row r="13">
@@ -2743,100 +2743,100 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.98815012370453</v>
+        <v>-1.701163276908239</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.520534559483059</v>
+        <v>-2.805775707085913</v>
       </c>
       <c r="D13" t="n">
-        <v>6.229432667105446</v>
+        <v>14.95614932970166</v>
       </c>
       <c r="E13" t="n">
-        <v>17.09682599597565</v>
+        <v>-7.297094637898716</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.759551801585784</v>
+        <v>-13.17266169684777</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.87092370946039</v>
+        <v>-15.58489418306084</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3499383953666927</v>
+        <v>13.54545216451728</v>
       </c>
       <c r="I13" t="n">
-        <v>2.553916148442761</v>
+        <v>4.536383939047765</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.113173815786929</v>
+        <v>-6.388672469310362</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.722448873025983</v>
+        <v>-8.8748570141586</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01788607671535935</v>
+        <v>27.19226449287727</v>
       </c>
       <c r="M13" t="n">
-        <v>4.010185511909325</v>
+        <v>5.721371422203755</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6337187575250987</v>
+        <v>6.285662148895982</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9756931696586492</v>
+        <v>0.5365642696233746</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2228366308859485</v>
+        <v>8.493287498594842</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.8331955077486897</v>
+        <v>1.680432946977621</v>
       </c>
       <c r="R13" t="n">
-        <v>2.123725998543845</v>
+        <v>17.53307030118159</v>
       </c>
       <c r="S13" t="n">
-        <v>6.130774894182966</v>
+        <v>13.47476282926777</v>
       </c>
       <c r="T13" t="n">
-        <v>2.047843449421821</v>
+        <v>-5.288132604103447</v>
       </c>
       <c r="U13" t="n">
-        <v>24.03421673505447</v>
+        <v>21.52799745175848</v>
       </c>
       <c r="V13" t="n">
-        <v>-11.85391295977396</v>
+        <v>2.033644313345918</v>
       </c>
       <c r="W13" t="n">
-        <v>-4.307814114922941</v>
+        <v>-1.200097279259897</v>
       </c>
       <c r="X13" t="n">
-        <v>-12.87812967513147</v>
+        <v>8.197228881710938</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.86398069583191</v>
+        <v>2.074550190183196</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.230439006823415</v>
+        <v>9.345378563479882</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6638755238241871</v>
+        <v>-3.213145180340732</v>
       </c>
       <c r="AB13" t="n">
-        <v>-2.821668491791128</v>
+        <v>10.56177671816495</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.642219988677269</v>
+        <v>-0.8183874344126274</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.081900119308048</v>
+        <v>11.54434045599193</v>
       </c>
       <c r="AE13" t="n">
-        <v>-2.175784475169285</v>
+        <v>16.42806526040156</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.4170417324106</v>
+        <v>-1.907268234954268</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.7873161902519</v>
+        <v>-2.683738652679105</v>
       </c>
     </row>
     <row r="14">
@@ -2846,100 +2846,100 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.438828102917138</v>
+        <v>-1.871750159516848</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.167344270871912</v>
+        <v>-23.47544178351409</v>
       </c>
       <c r="D14" t="n">
-        <v>25.04948189519814</v>
+        <v>-24.32160492038306</v>
       </c>
       <c r="E14" t="n">
-        <v>23.97280364165067</v>
+        <v>-6.489594597489297</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.924261764519642</v>
+        <v>-9.541408684189568</v>
       </c>
       <c r="G14" t="n">
-        <v>15.5600403325326</v>
+        <v>-5.053253906946599</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.021483523649702</v>
+        <v>-4.804966787058633</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3329951016745</v>
+        <v>-9.155900620825422</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1304534486427215</v>
+        <v>-30.43089471498945</v>
       </c>
       <c r="K14" t="n">
-        <v>-6.437492836222132</v>
+        <v>-5.658124714864704</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.991736871786534</v>
+        <v>-31.48415641629339</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6178152216444639</v>
+        <v>-0.1937686818970742</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3683712350933723</v>
+        <v>-33.48117176861427</v>
       </c>
       <c r="O14" t="n">
-        <v>18.66423230134573</v>
+        <v>-0.4325908219486344</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01205894052204791</v>
+        <v>-1.803663465267627</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.277024435030467</v>
+        <v>0.1012074578046529</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.7868904906630605</v>
+        <v>-26.1019688227569</v>
       </c>
       <c r="S14" t="n">
-        <v>6.194073000055541</v>
+        <v>-8.105173419476952</v>
       </c>
       <c r="T14" t="n">
-        <v>5.940589536643148</v>
+        <v>-8.766633605397796</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.47790344941134</v>
+        <v>-28.66539031127683</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.468934310355416</v>
+        <v>-16.81401051576045</v>
       </c>
       <c r="W14" t="n">
-        <v>2.233428377060106</v>
+        <v>-6.525374178839991</v>
       </c>
       <c r="X14" t="n">
-        <v>7.869305227901434</v>
+        <v>-13.98197788924369</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.283399501270693</v>
+        <v>12.16315786318041</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.4649261222142079</v>
+        <v>-4.419363388916019</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1.272043147220997</v>
+        <v>-6.584076543459211</v>
       </c>
       <c r="AB14" t="n">
-        <v>-2.618974169011077</v>
+        <v>-11.63593067651336</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.920397619365572</v>
+        <v>-3.20511691886878</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.530413124157215</v>
+        <v>-27.906963016852</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.05533342990713704</v>
+        <v>-6.524459733871849</v>
       </c>
       <c r="AF14" t="n">
-        <v>23.71710083993307</v>
+        <v>-0.3335763741648173</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.17324261638049</v>
+        <v>2.090234429054874</v>
       </c>
     </row>
     <row r="15">
@@ -2949,100 +2949,100 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.526223232956846</v>
+        <v>0.05105555784268028</v>
       </c>
       <c r="C15" t="n">
-        <v>7.890935323374825</v>
+        <v>0.6559287131210862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8775194401013711</v>
+        <v>2.990686248096536</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2157917297981154</v>
+        <v>-0.05470671042128047</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.351761968362712</v>
+        <v>-7.188903290148053</v>
       </c>
       <c r="G15" t="n">
-        <v>32.73131867371527</v>
+        <v>-13.2975382907237</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.722211691326392</v>
+        <v>12.51643921167362</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.720465946808379</v>
+        <v>17.34812056796348</v>
       </c>
       <c r="J15" t="n">
-        <v>16.55490875311263</v>
+        <v>-2.977698999727082</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.4319472186981574</v>
+        <v>5.713804928706187</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6241133903818844</v>
+        <v>12.94429451539838</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8633499434718473</v>
+        <v>9.759026142972608</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.120402093436978</v>
+        <v>-11.3902216418392</v>
       </c>
       <c r="O15" t="n">
-        <v>11.68807281442445</v>
+        <v>-3.742083739822813</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.944416432411489</v>
+        <v>20.85498114932629</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.8870946270940886</v>
+        <v>15.99698309733453</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.4217753373931252</v>
+        <v>-2.0607391457556</v>
       </c>
       <c r="S15" t="n">
-        <v>16.63343423249993</v>
+        <v>21.47948453028037</v>
       </c>
       <c r="T15" t="n">
-        <v>-3.807255036198944</v>
+        <v>-2.183710445412645</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5898200208426573</v>
+        <v>1.352015263760476</v>
       </c>
       <c r="V15" t="n">
-        <v>-8.946361026188571</v>
+        <v>2.487005161452569</v>
       </c>
       <c r="W15" t="n">
-        <v>-8.54660260845705</v>
+        <v>2.898698711463612</v>
       </c>
       <c r="X15" t="n">
-        <v>11.43088376520279</v>
+        <v>16.45448956423016</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.571636914231684</v>
+        <v>2.007431949585794</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.8497806285518772</v>
+        <v>17.48581249441256</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1.097934578536849</v>
+        <v>10.00297640136187</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.185780856815414</v>
+        <v>22.16821616686497</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.67304054960833</v>
+        <v>-5.569607061785551</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.9544028258830273</v>
+        <v>-12.50384055616756</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.093929213766692</v>
+        <v>28.94808320174517</v>
       </c>
       <c r="AF15" t="n">
-        <v>-4.07129990736446</v>
+        <v>-1.343960353033537</v>
       </c>
       <c r="AG15" t="n">
-        <v>21.99674761564699</v>
+        <v>-2.951419947398954</v>
       </c>
     </row>
     <row r="16">
@@ -3052,100 +3052,100 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.19968274453755</v>
+        <v>-1.156199891069817</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.311770806954222</v>
+        <v>-7.349528477375988</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.547398598537365</v>
+        <v>-8.424903878962057</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.79431648716149</v>
+        <v>-1.287966987376018</v>
       </c>
       <c r="F16" t="n">
-        <v>-13.8344999599293</v>
+        <v>-3.254249606334534</v>
       </c>
       <c r="G16" t="n">
-        <v>-19.23502283435696</v>
+        <v>-6.713681564471752</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.73466232703495</v>
+        <v>-10.26472802059772</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.577312684562147</v>
+        <v>-17.12893092353269</v>
       </c>
       <c r="J16" t="n">
-        <v>-11.69415522250938</v>
+        <v>-19.3697657206951</v>
       </c>
       <c r="K16" t="n">
-        <v>1.494822495947403</v>
+        <v>-4.853491038858439</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.245765665273868</v>
+        <v>-15.7966270975408</v>
       </c>
       <c r="M16" t="n">
-        <v>-7.094116391993158</v>
+        <v>0.6441452115290714</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.368586970175035</v>
+        <v>-1.867739769120616</v>
       </c>
       <c r="O16" t="n">
-        <v>-17.24973490622311</v>
+        <v>0.1976201589037248</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5156947471125901</v>
+        <v>-28.09608205039232</v>
       </c>
       <c r="Q16" t="n">
-        <v>-7.503830248537986</v>
+        <v>-0.9111366494181165</v>
       </c>
       <c r="R16" t="n">
-        <v>2.67837379255499</v>
+        <v>-6.310312703394993</v>
       </c>
       <c r="S16" t="n">
-        <v>-10.62508627010394</v>
+        <v>-22.51564169841173</v>
       </c>
       <c r="T16" t="n">
-        <v>-7.421104340161096</v>
+        <v>-7.537565702425748</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.615375186316582</v>
+        <v>-3.823867337965166</v>
       </c>
       <c r="V16" t="n">
-        <v>-13.98934457386981</v>
+        <v>-16.8601082063187</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.005463086430675632</v>
+        <v>-9.498207308524622</v>
       </c>
       <c r="X16" t="n">
-        <v>-16.40050734943157</v>
+        <v>-19.67036776916298</v>
       </c>
       <c r="Y16" t="n">
-        <v>-23.47942445897979</v>
+        <v>5.813938357445082</v>
       </c>
       <c r="Z16" t="n">
-        <v>-2.766791491772962</v>
+        <v>-18.23575462405455</v>
       </c>
       <c r="AA16" t="n">
-        <v>-2.903852229430572</v>
+        <v>-12.33258137867898</v>
       </c>
       <c r="AB16" t="n">
-        <v>-7.481958225468822</v>
+        <v>-17.72015342969991</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.420816409887429</v>
+        <v>-3.091195518910734</v>
       </c>
       <c r="AD16" t="n">
-        <v>-3.352398774662844</v>
+        <v>-18.00189511246155</v>
       </c>
       <c r="AE16" t="n">
-        <v>-3.363476849092875</v>
+        <v>-14.48263824274002</v>
       </c>
       <c r="AF16" t="n">
-        <v>-13.08056641973532</v>
+        <v>-3.541821964549982</v>
       </c>
       <c r="AG16" t="n">
-        <v>-15.76942000809191</v>
+        <v>8.656146172740028</v>
       </c>
     </row>
     <row r="17">
@@ -3155,100 +3155,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.313346790121492</v>
+        <v>-1.805208891168505</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.14287569028982</v>
+        <v>5.095068173361961</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.278262595424561</v>
+        <v>11.54002030563003</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.77448843031974</v>
+        <v>9.825808377284911</v>
       </c>
       <c r="F17" t="n">
-        <v>-12.05939952130407</v>
+        <v>10.69020607353721</v>
       </c>
       <c r="G17" t="n">
-        <v>-21.37455508199563</v>
+        <v>15.43199460111165</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.272756006872674</v>
+        <v>3.407382671280559</v>
       </c>
       <c r="I17" t="n">
-        <v>-12.74390853498634</v>
+        <v>-1.6768659878562</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.152176025671797</v>
+        <v>12.68268729232305</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7575737208606297</v>
+        <v>14.69701540058576</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.388978521263822</v>
+        <v>5.794225523881763</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.102168831038151</v>
+        <v>-3.18731750371647</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.802768224062828</v>
+        <v>12.16515088878093</v>
       </c>
       <c r="O17" t="n">
-        <v>-20.54510556094875</v>
+        <v>3.828164068122847</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3228831458861714</v>
+        <v>-7.691259489894947</v>
       </c>
       <c r="Q17" t="n">
-        <v>-3.376520114544187</v>
+        <v>0.4837357361829625</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.228110849899787</v>
+        <v>-8.455635988043367</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.854688305269322</v>
+        <v>-6.495835080414807</v>
       </c>
       <c r="T17" t="n">
-        <v>-2.885308411867583</v>
+        <v>-3.097985699226975</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.17464692639278</v>
+        <v>20.3048075268148</v>
       </c>
       <c r="V17" t="n">
-        <v>-15.27944919927033</v>
+        <v>1.247007318527776</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.777783575183542</v>
+        <v>3.097253442981537</v>
       </c>
       <c r="X17" t="n">
-        <v>-12.59284875788768</v>
+        <v>4.804659932667285</v>
       </c>
       <c r="Y17" t="n">
-        <v>-13.05931250484602</v>
+        <v>-0.7867423412999852</v>
       </c>
       <c r="Z17" t="n">
-        <v>-2.472951564807217</v>
+        <v>-8.615414584534268</v>
       </c>
       <c r="AA17" t="n">
-        <v>-2.766763659311224</v>
+        <v>0.7863337068691373</v>
       </c>
       <c r="AB17" t="n">
-        <v>-14.91449663923958</v>
+        <v>-11.7527969165723</v>
       </c>
       <c r="AC17" t="n">
-        <v>-20.73996811502678</v>
+        <v>4.193389594007386</v>
       </c>
       <c r="AD17" t="n">
-        <v>-3.908731008423244</v>
+        <v>23.03167722270886</v>
       </c>
       <c r="AE17" t="n">
-        <v>-7.126937023580295</v>
+        <v>6.579188390468273</v>
       </c>
       <c r="AF17" t="n">
-        <v>-18.05179354348078</v>
+        <v>1.492467242303301</v>
       </c>
       <c r="AG17" t="n">
-        <v>-7.524184124606497</v>
+        <v>4.852863034041873</v>
       </c>
     </row>
     <row r="18">
@@ -3258,100 +3258,100 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9.521787756274739</v>
+        <v>-1.638099626847918</v>
       </c>
       <c r="C18" t="n">
-        <v>-28.28730345543023</v>
+        <v>28.04210919739807</v>
       </c>
       <c r="D18" t="n">
-        <v>1.824177343327907</v>
+        <v>18.33652286163713</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.082102254250993</v>
+        <v>0.3181955387820828</v>
       </c>
       <c r="F18" t="n">
-        <v>-15.18334835344697</v>
+        <v>-0.1413560887978643</v>
       </c>
       <c r="G18" t="n">
-        <v>-24.61808420215034</v>
+        <v>0.3507720134218454</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.447158892110104</v>
+        <v>-7.274730938571849</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2733908549265104</v>
+        <v>-12.23390883862976</v>
       </c>
       <c r="J18" t="n">
-        <v>-16.58475169961058</v>
+        <v>2.980046771019153</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.07868681699545857</v>
+        <v>26.89339602784963</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.476558663985414</v>
+        <v>4.137211719838989</v>
       </c>
       <c r="M18" t="n">
-        <v>-6.775091122125246</v>
+        <v>-3.607153243383605</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.938823862900219</v>
+        <v>6.48277046344297</v>
       </c>
       <c r="O18" t="n">
-        <v>-13.84112535189778</v>
+        <v>-0.4940324794523179</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6067314355977255</v>
+        <v>-2.213777354512486</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2.181289546541992</v>
+        <v>-7.171968382003199</v>
       </c>
       <c r="R18" t="n">
-        <v>2.298372599456377</v>
+        <v>5.305072531421919</v>
       </c>
       <c r="S18" t="n">
-        <v>-14.46943319745831</v>
+        <v>-14.58203650702836</v>
       </c>
       <c r="T18" t="n">
-        <v>-4.607866055338619</v>
+        <v>0.8020845362870306</v>
       </c>
       <c r="U18" t="n">
-        <v>-18.63418327033257</v>
+        <v>9.454580815977426</v>
       </c>
       <c r="V18" t="n">
-        <v>-21.68474849681543</v>
+        <v>0.5771186195077402</v>
       </c>
       <c r="W18" t="n">
-        <v>2.713354404542339</v>
+        <v>6.126690967176035</v>
       </c>
       <c r="X18" t="n">
-        <v>-17.87975617990249</v>
+        <v>-3.426234835584941</v>
       </c>
       <c r="Y18" t="n">
-        <v>-5.87067488494627</v>
+        <v>-6.442414070736764</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.9061106711072292</v>
+        <v>-11.61471482090821</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.5979131540292606</v>
+        <v>-4.766868908354883</v>
       </c>
       <c r="AB18" t="n">
-        <v>-7.708727638600897</v>
+        <v>-1.082853326035819</v>
       </c>
       <c r="AC18" t="n">
-        <v>-21.51011927530378</v>
+        <v>4.43196119501656</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.3618132070190979</v>
+        <v>17.18156009460092</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.115942069374199</v>
+        <v>-0.2112525834745142</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.6002194693230538</v>
+        <v>0.6848668913420627</v>
       </c>
       <c r="AG18" t="n">
-        <v>-2.185281577446578</v>
+        <v>4.463196068104266</v>
       </c>
     </row>
     <row r="19">
@@ -3361,100 +3361,100 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.01392025716238</v>
+        <v>0.6611036929384576</v>
       </c>
       <c r="C19" t="n">
-        <v>10.40105200499856</v>
+        <v>12.58225708727785</v>
       </c>
       <c r="D19" t="n">
-        <v>5.262863152967507</v>
+        <v>-14.97619985331569</v>
       </c>
       <c r="E19" t="n">
-        <v>8.9870919389917</v>
+        <v>-0.669219574602224</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.011368569441335</v>
+        <v>-4.091438831998782</v>
       </c>
       <c r="G19" t="n">
-        <v>5.112795867547762</v>
+        <v>-7.062700608188864</v>
       </c>
       <c r="H19" t="n">
-        <v>9.45628083901839</v>
+        <v>-29.41206973296484</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5594946201820603</v>
+        <v>-30.82638578348036</v>
       </c>
       <c r="J19" t="n">
-        <v>12.43375350119828</v>
+        <v>-2.745108542469006</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1793735204222115</v>
+        <v>12.35551395758452</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6113574629751716</v>
+        <v>-9.99044776937359</v>
       </c>
       <c r="M19" t="n">
-        <v>2.708807483383333</v>
+        <v>-15.98789140122541</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.1286187340723997</v>
+        <v>19.09637619295016</v>
       </c>
       <c r="O19" t="n">
-        <v>3.150515217606603</v>
+        <v>-1.003507338716161</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.5380912289855152</v>
+        <v>-38.56852229000847</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3063323703946098</v>
+        <v>-14.50381485436353</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.7310621567370924</v>
+        <v>29.3409045985049</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23758621590633</v>
+        <v>-32.74155943132371</v>
       </c>
       <c r="T19" t="n">
-        <v>1.127300965432302</v>
+        <v>10.79319760427909</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.688029713941561</v>
+        <v>-5.673804637612589</v>
       </c>
       <c r="V19" t="n">
-        <v>15.34954988224943</v>
+        <v>1.707221640094495</v>
       </c>
       <c r="W19" t="n">
-        <v>1.133998148643093</v>
+        <v>-8.075991758524882</v>
       </c>
       <c r="X19" t="n">
-        <v>19.99597870864006</v>
+        <v>-18.08594704677355</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.509936224600271</v>
+        <v>-3.278459169386712</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.1034108074087273</v>
+        <v>-28.8187571201748</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.06957123697616882</v>
+        <v>-9.940182261401722</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.560888847405865</v>
+        <v>-27.55599116273848</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.945822039862113</v>
+        <v>-4.278792629324313</v>
       </c>
       <c r="AD19" t="n">
-        <v>-2.61683163851379</v>
+        <v>20.76396807372019</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.95912785306909</v>
+        <v>-30.89061043910736</v>
       </c>
       <c r="AF19" t="n">
-        <v>-5.805646405383894</v>
+        <v>-0.08068682114200712</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.410378469225031</v>
+        <v>11.52539523879786</v>
       </c>
     </row>
     <row r="20">
@@ -3464,100 +3464,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.645351518226995</v>
+        <v>-3.737433488329994</v>
       </c>
       <c r="C20" t="n">
-        <v>6.63055852409804</v>
+        <v>-4.431166179304569</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.094443671332379</v>
+        <v>-16.94869543486003</v>
       </c>
       <c r="E20" t="n">
-        <v>6.459105418890688</v>
+        <v>-5.858932063912771</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.593345442246545</v>
+        <v>-7.320864540652605</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.865038385314587</v>
+        <v>2.820101665979416</v>
       </c>
       <c r="H20" t="n">
-        <v>1.744553376879258</v>
+        <v>-14.70145066087521</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.710832232690541</v>
+        <v>-7.338488838191555</v>
       </c>
       <c r="J20" t="n">
-        <v>2.061190192153354</v>
+        <v>-13.10524650664182</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5103185592438764</v>
+        <v>6.501138919132565</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.297383085288</v>
+        <v>-18.79120042921452</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.476689127022939</v>
+        <v>-10.89697121185021</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.179402965155321</v>
+        <v>-8.427498776668282</v>
       </c>
       <c r="O20" t="n">
-        <v>10.26372654037724</v>
+        <v>-1.079924843997294</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.209379538515387</v>
+        <v>-14.72161147866297</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.7941002623268084</v>
+        <v>-6.572592039167506</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6087957523914795</v>
+        <v>-14.36156562913164</v>
       </c>
       <c r="S20" t="n">
-        <v>1.17288140365978</v>
+        <v>-18.87581177450242</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.683492014108892</v>
+        <v>-2.205555385494228</v>
       </c>
       <c r="U20" t="n">
-        <v>6.05688753351621</v>
+        <v>-17.52620842815015</v>
       </c>
       <c r="V20" t="n">
-        <v>19.79114221061924</v>
+        <v>-18.31219922562993</v>
       </c>
       <c r="W20" t="n">
-        <v>-3.980773584566395</v>
+        <v>-10.48097220025684</v>
       </c>
       <c r="X20" t="n">
-        <v>15.9914335406836</v>
+        <v>-16.48588409673749</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.12881280062494</v>
+        <v>-0.976907163169386</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1.110403181479705</v>
+        <v>-13.15338752766215</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2653695946576836</v>
+        <v>-6.677797498965285</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.581047799828201</v>
+        <v>-20.50315477488536</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.030966977812544</v>
+        <v>-5.762493508606224</v>
       </c>
       <c r="AD20" t="n">
-        <v>-1.551880167894564</v>
+        <v>-15.87103552700145</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2538479572014042</v>
+        <v>-14.42499570239184</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.58607995520844</v>
+        <v>-1.220411832976939</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.13161197223334</v>
+        <v>2.91666852059948</v>
       </c>
     </row>
     <row r="21">
@@ -3567,100 +3567,100 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-28.3774005900164</v>
+        <v>-2.17141793471462</v>
       </c>
       <c r="C21" t="n">
-        <v>-25.5265792059413</v>
+        <v>-0.02079791834934058</v>
       </c>
       <c r="D21" t="n">
-        <v>28.09505248736026</v>
+        <v>14.48572433018535</v>
       </c>
       <c r="E21" t="n">
-        <v>11.70925672608059</v>
+        <v>-3.777158696748629</v>
       </c>
       <c r="F21" t="n">
-        <v>4.900757049388792</v>
+        <v>-2.424111633856981</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.962773692100191</v>
+        <v>-5.855624700396829</v>
       </c>
       <c r="H21" t="n">
-        <v>-16.38533286947893</v>
+        <v>13.51304768240169</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.701567192822263</v>
+        <v>33.05743878013844</v>
       </c>
       <c r="J21" t="n">
-        <v>-16.31509886975855</v>
+        <v>-3.290590004657972</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.374332433558252</v>
+        <v>-0.9477569265975015</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.181057581300754</v>
+        <v>19.47935241413451</v>
       </c>
       <c r="M21" t="n">
-        <v>-7.577942511330023</v>
+        <v>8.038919661014269</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4080665490154815</v>
+        <v>-5.190348676794894</v>
       </c>
       <c r="O21" t="n">
-        <v>11.37458685511535</v>
+        <v>-0.4619688630586729</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9228390266741336</v>
+        <v>25.33485146818272</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.6232288139839925</v>
+        <v>10.669692105848</v>
       </c>
       <c r="R21" t="n">
-        <v>4.827441347828021</v>
+        <v>9.418878173970661</v>
       </c>
       <c r="S21" t="n">
-        <v>-14.16676486087777</v>
+        <v>35.13250885629774</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.9787302732967172</v>
+        <v>5.529241160955191</v>
       </c>
       <c r="U21" t="n">
-        <v>-7.995761854197188</v>
+        <v>-1.430073571307516</v>
       </c>
       <c r="V21" t="n">
-        <v>-28.35078421170998</v>
+        <v>25.385911628034</v>
       </c>
       <c r="W21" t="n">
-        <v>-4.119986016303687</v>
+        <v>-0.199255313781189</v>
       </c>
       <c r="X21" t="n">
-        <v>-25.42880943324859</v>
+        <v>25.42251031579265</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.9013064343767647</v>
+        <v>-0.4511413816574718</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.4129405790825794</v>
+        <v>26.08413451366223</v>
       </c>
       <c r="AA21" t="n">
-        <v>-1.347289967749312</v>
+        <v>2.796746857648425</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.175364525840687</v>
+        <v>16.27856342689115</v>
       </c>
       <c r="AC21" t="n">
-        <v>-14.62087821738246</v>
+        <v>0.6049000978262896</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.5922683176195509</v>
+        <v>0.9455736187469796</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.832807771886703</v>
+        <v>42.95566149264337</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.39490676741175</v>
+        <v>-2.617000890886931</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.341865255112137</v>
+        <v>-9.001449951222147</v>
       </c>
     </row>
     <row r="22">
@@ -3670,100 +3670,100 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4.383187301135933</v>
+        <v>0.5877293468441934</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.471783487773639</v>
+        <v>-6.925653511526399</v>
       </c>
       <c r="D22" t="n">
-        <v>-23.27086975830944</v>
+        <v>-15.21850547938415</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.96571048387268</v>
+        <v>-1.378457064030957</v>
       </c>
       <c r="F22" t="n">
-        <v>-10.68745078971829</v>
+        <v>-15.65559612626775</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.740312593344603</v>
+        <v>-9.975958541496707</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.319851876347529</v>
+        <v>-0.8174312312117908</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.498696736692713</v>
+        <v>-0.03787780326601008</v>
       </c>
       <c r="J22" t="n">
-        <v>-6.812036797350985</v>
+        <v>-15.09178413541784</v>
       </c>
       <c r="K22" t="n">
-        <v>1.31764055655565</v>
+        <v>-14.37750427481378</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.7697341518103956</v>
+        <v>-11.6977846018212</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.352233550654366</v>
+        <v>-0.919641285244031</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.966864123892251</v>
+        <v>-17.60491078910553</v>
       </c>
       <c r="O22" t="n">
-        <v>-22.2960449049115</v>
+        <v>-0.4714393642369262</v>
       </c>
       <c r="P22" t="n">
-        <v>-2.598334399835039</v>
+        <v>-4.065622721606047</v>
       </c>
       <c r="Q22" t="n">
-        <v>-3.195226092971122</v>
+        <v>1.941797138401176</v>
       </c>
       <c r="R22" t="n">
-        <v>1.867536485434474</v>
+        <v>-19.3592466875969</v>
       </c>
       <c r="S22" t="n">
-        <v>-3.969058368832548</v>
+        <v>-0.7144801214023438</v>
       </c>
       <c r="T22" t="n">
-        <v>-14.05538854495226</v>
+        <v>-15.29782327770502</v>
       </c>
       <c r="U22" t="n">
-        <v>-7.357550615184712</v>
+        <v>-10.87956523207054</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.286910541703408</v>
+        <v>-5.214273425519809</v>
       </c>
       <c r="W22" t="n">
-        <v>-7.941103676456242</v>
+        <v>-9.199173005927983</v>
       </c>
       <c r="X22" t="n">
-        <v>-3.385189802375432</v>
+        <v>-9.964019926142916</v>
       </c>
       <c r="Y22" t="n">
-        <v>-17.89910133717905</v>
+        <v>0.5757959295713322</v>
       </c>
       <c r="Z22" t="n">
-        <v>-1.324328701084405</v>
+        <v>-2.840384521912115</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.1228663990235125</v>
+        <v>-13.01599718711029</v>
       </c>
       <c r="AB22" t="n">
-        <v>-11.36439463105996</v>
+        <v>-11.28785338776623</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.070938195067521</v>
+        <v>-3.125516530939645</v>
       </c>
       <c r="AD22" t="n">
-        <v>-5.209845870101093</v>
+        <v>-9.879675677240801</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.235558320062443</v>
+        <v>4.195758936737804</v>
       </c>
       <c r="AF22" t="n">
-        <v>-26.86919317954715</v>
+        <v>1.818001878150889</v>
       </c>
       <c r="AG22" t="n">
-        <v>-8.609041338714201</v>
+        <v>0.8158664155670006</v>
       </c>
     </row>
     <row r="23">
@@ -3773,100 +3773,100 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-15.49315327411531</v>
+        <v>-4.099710850253214</v>
       </c>
       <c r="C23" t="n">
-        <v>-29.80776743836271</v>
+        <v>-7.904271658805737</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.191069410303241</v>
+        <v>-10.34922384312079</v>
       </c>
       <c r="E23" t="n">
-        <v>4.067884248172922</v>
+        <v>-0.5912386257027691</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.042751354951414</v>
+        <v>-1.455289156340444</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.348456836050082</v>
+        <v>-1.104694849349547</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.19536014815521</v>
+        <v>5.304431238348834</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.816227498234193</v>
+        <v>2.016798035303462</v>
       </c>
       <c r="J23" t="n">
-        <v>-19.96791561504416</v>
+        <v>-8.083070094848596</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.2991039714100949</v>
+        <v>-1.825174285330767</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.44510542722799</v>
+        <v>-3.968604589295262</v>
       </c>
       <c r="M23" t="n">
-        <v>-13.40323154647121</v>
+        <v>6.98054714905279</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.50972063621933</v>
+        <v>-18.39968822678341</v>
       </c>
       <c r="O23" t="n">
-        <v>4.190367268229096</v>
+        <v>-2.977153900392696</v>
       </c>
       <c r="P23" t="n">
-        <v>-1.209714835631445</v>
+        <v>5.507718301130863</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9821548072032461</v>
+        <v>7.475305865116606</v>
       </c>
       <c r="R23" t="n">
-        <v>1.986081829905121</v>
+        <v>-17.52180654301274</v>
       </c>
       <c r="S23" t="n">
-        <v>-11.60678633467875</v>
+        <v>-1.125610596818029</v>
       </c>
       <c r="T23" t="n">
-        <v>-5.918978255550543</v>
+        <v>-3.600889622972649</v>
       </c>
       <c r="U23" t="n">
-        <v>-13.54200644291531</v>
+        <v>-0.8399538186076034</v>
       </c>
       <c r="V23" t="n">
-        <v>-7.003144861564526</v>
+        <v>-2.825240965861445</v>
       </c>
       <c r="W23" t="n">
-        <v>-3.541762723755693</v>
+        <v>-2.875204968816489</v>
       </c>
       <c r="X23" t="n">
-        <v>-2.697665790349119</v>
+        <v>3.709348377549625</v>
       </c>
       <c r="Y23" t="n">
-        <v>-3.931107728856797</v>
+        <v>10.98899107946198</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2.093304246700061</v>
+        <v>1.995034000614783</v>
       </c>
       <c r="AA23" t="n">
-        <v>-2.609415460874291</v>
+        <v>2.326206629976611</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.8675220126448319</v>
+        <v>-2.783112339849208</v>
       </c>
       <c r="AC23" t="n">
-        <v>-18.58298702731554</v>
+        <v>1.324678370691512</v>
       </c>
       <c r="AD23" t="n">
-        <v>-3.462895236051188</v>
+        <v>-13.6679823272926</v>
       </c>
       <c r="AE23" t="n">
-        <v>-5.454424102851148</v>
+        <v>8.094579174888553</v>
       </c>
       <c r="AF23" t="n">
-        <v>-9.557913165804585</v>
+        <v>-0.4231546029317966</v>
       </c>
       <c r="AG23" t="n">
-        <v>-5.822402839830675</v>
+        <v>-1.364067995216862</v>
       </c>
     </row>
     <row r="24">
@@ -3876,100 +3876,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.76707194680142</v>
+        <v>0.2899078684250199</v>
       </c>
       <c r="C24" t="n">
-        <v>17.51456587851338</v>
+        <v>-31.10265381097811</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.628464527294631</v>
+        <v>-29.83742129745148</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.310635126239114</v>
+        <v>-8.615506037476623</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.995584743971575</v>
+        <v>-15.07060561082795</v>
       </c>
       <c r="G24" t="n">
-        <v>18.19495537951986</v>
+        <v>0.5530234618823087</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.344055126339635</v>
+        <v>-23.63402970646608</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.17757932126744</v>
+        <v>-22.03564634439184</v>
       </c>
       <c r="J24" t="n">
-        <v>21.93473730693411</v>
+        <v>-7.716800136293457</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.115075425679358</v>
+        <v>-17.4034396810906</v>
       </c>
       <c r="L24" t="n">
-        <v>3.58568146190846</v>
+        <v>-20.31456131046186</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2740449102564412</v>
+        <v>-14.37484137378244</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.2725567530069888</v>
+        <v>-22.13832419055545</v>
       </c>
       <c r="O24" t="n">
-        <v>-1.58871248989676</v>
+        <v>-5.950747307037934</v>
       </c>
       <c r="P24" t="n">
-        <v>-1.245026638486281</v>
+        <v>-21.12429160393533</v>
       </c>
       <c r="Q24" t="n">
-        <v>-1.440537846001347</v>
+        <v>-6.487831863854304</v>
       </c>
       <c r="R24" t="n">
-        <v>-3.325599874062253</v>
+        <v>1.711982091616206</v>
       </c>
       <c r="S24" t="n">
-        <v>13.9901722024834</v>
+        <v>-20.36291631073376</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6032374229023061</v>
+        <v>-6.029335382188833</v>
       </c>
       <c r="U24" t="n">
-        <v>11.16666201974637</v>
+        <v>-26.80517097363281</v>
       </c>
       <c r="V24" t="n">
-        <v>10.4339858026407</v>
+        <v>-11.01222421955023</v>
       </c>
       <c r="W24" t="n">
-        <v>-5.536582692918397</v>
+        <v>-5.567487159581246</v>
       </c>
       <c r="X24" t="n">
-        <v>15.94119953104806</v>
+        <v>-19.69780889304782</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.521436830634535</v>
+        <v>4.513335949230909</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.2495185657391358</v>
+        <v>-22.98042412162196</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.3067891695229601</v>
+        <v>-14.00672019597454</v>
       </c>
       <c r="AB24" t="n">
-        <v>-6.901750999770174</v>
+        <v>-11.28211712559253</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.38302146026245</v>
+        <v>-1.667865134195094</v>
       </c>
       <c r="AD24" t="n">
-        <v>-2.736618760819484</v>
+        <v>-30.44501963352662</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.8391169333787409</v>
+        <v>-19.28569940171005</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.878949364414323</v>
+        <v>-8.812508062319695</v>
       </c>
       <c r="AG24" t="n">
-        <v>20.0872639676177</v>
+        <v>4.292413243277113</v>
       </c>
     </row>
     <row r="25">
@@ -3979,100 +3979,100 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.58828771638077</v>
+        <v>-1.075082162091574</v>
       </c>
       <c r="C25" t="n">
-        <v>22.59637229781504</v>
+        <v>2.380542250827942</v>
       </c>
       <c r="D25" t="n">
-        <v>4.02672386026816</v>
+        <v>13.29762895882448</v>
       </c>
       <c r="E25" t="n">
-        <v>8.054572687175249</v>
+        <v>-2.815351940514355</v>
       </c>
       <c r="F25" t="n">
-        <v>2.330859946376363</v>
+        <v>-5.905713759291345</v>
       </c>
       <c r="G25" t="n">
-        <v>11.62722854310699</v>
+        <v>-21.13474551342405</v>
       </c>
       <c r="H25" t="n">
-        <v>13.54116270083073</v>
+        <v>37.92030425884209</v>
       </c>
       <c r="I25" t="n">
-        <v>-4.100242047905429</v>
+        <v>24.6602783392954</v>
       </c>
       <c r="J25" t="n">
-        <v>8.547221434058937</v>
+        <v>-4.168712144170255</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.566373629077816</v>
+        <v>-10.68355212461406</v>
       </c>
       <c r="L25" t="n">
-        <v>1.012256778944059</v>
+        <v>15.77162450178009</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7143930715903754</v>
+        <v>8.85705875756198</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1513635132491005</v>
+        <v>-12.23800899305472</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.8531582126818114</v>
+        <v>1.012939921708848</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.8488070419951894</v>
+        <v>22.24787355938722</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3046620959868582</v>
+        <v>1.847937353053724</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.436809083086714</v>
+        <v>-0.9276588599580555</v>
       </c>
       <c r="S25" t="n">
-        <v>18.73280111409988</v>
+        <v>19.75472479892778</v>
       </c>
       <c r="T25" t="n">
-        <v>-3.946822846374778</v>
+        <v>2.600536519376144</v>
       </c>
       <c r="U25" t="n">
-        <v>10.05680042705278</v>
+        <v>9.489829751775178</v>
       </c>
       <c r="V25" t="n">
-        <v>17.48767840096735</v>
+        <v>20.25685196285335</v>
       </c>
       <c r="W25" t="n">
-        <v>-9.483446980701313</v>
+        <v>-1.610975902008208</v>
       </c>
       <c r="X25" t="n">
-        <v>9.724246514343339</v>
+        <v>13.84929007858862</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.785968612187161</v>
+        <v>2.715122143919426</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2266611222152074</v>
+        <v>17.27466496127026</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.3557559662455853</v>
+        <v>-1.506368614749024</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.4773296193325225</v>
+        <v>15.23387551770965</v>
       </c>
       <c r="AC25" t="n">
-        <v>21.15375333328457</v>
+        <v>-4.276023040438468</v>
       </c>
       <c r="AD25" t="n">
-        <v>-1.267833703305649</v>
+        <v>0.1624090526751708</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.8513392549885465</v>
+        <v>34.38780729633791</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.3494874624951771</v>
+        <v>-0.6169418426697184</v>
       </c>
       <c r="AG25" t="n">
-        <v>22.14082177783344</v>
+        <v>-10.81299594013675</v>
       </c>
     </row>
     <row r="26">
@@ -4082,100 +4082,100 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.136282344881878</v>
+        <v>-1.70436445263486</v>
       </c>
       <c r="C26" t="n">
-        <v>14.80248729312499</v>
+        <v>35.9381192302147</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.35688262337883</v>
+        <v>2.041289668116236</v>
       </c>
       <c r="E26" t="n">
-        <v>12.40899623938861</v>
+        <v>-3.656472104932478</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.964890279462996</v>
+        <v>-7.476175002867855</v>
       </c>
       <c r="G26" t="n">
-        <v>10.8071283119448</v>
+        <v>11.14921995032607</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.120203368848019</v>
+        <v>-16.08285779246181</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.772504029225089</v>
+        <v>-22.20220160090082</v>
       </c>
       <c r="J26" t="n">
-        <v>15.02995026238454</v>
+        <v>3.900848657098958</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.58129050105648</v>
+        <v>44.35011018699631</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.03836134235759</v>
+        <v>-0.2759396191217019</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.7663150393541881</v>
+        <v>-7.952422248610654</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4857079262604556</v>
+        <v>25.56215353364415</v>
       </c>
       <c r="O26" t="n">
-        <v>16.67105013815269</v>
+        <v>2.21420308077181</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.4805919451850736</v>
+        <v>-21.40835651800547</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1.371781038048984</v>
+        <v>-14.42667353970227</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.092238273159325</v>
+        <v>15.76887703981414</v>
       </c>
       <c r="S26" t="n">
-        <v>23.77555700782186</v>
+        <v>-22.4612318006671</v>
       </c>
       <c r="T26" t="n">
-        <v>2.647488182326356</v>
+        <v>2.529999648974309</v>
       </c>
       <c r="U26" t="n">
-        <v>15.51503378863345</v>
+        <v>-0.915702453492021</v>
       </c>
       <c r="V26" t="n">
-        <v>15.69761211458551</v>
+        <v>14.56542075569265</v>
       </c>
       <c r="W26" t="n">
-        <v>7.054044202349866</v>
+        <v>-8.360912536156656</v>
       </c>
       <c r="X26" t="n">
-        <v>15.18144945630385</v>
+        <v>-17.82199700497076</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.98087327125858</v>
+        <v>-7.757361141180571</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.7996111374758578</v>
+        <v>-21.28521244211647</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.502543951310331</v>
+        <v>-5.619282752919271</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02395909053475384</v>
+        <v>-15.19043629598937</v>
       </c>
       <c r="AC26" t="n">
-        <v>22.51664181371517</v>
+        <v>-3.867066090980935</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.7534345489529339</v>
+        <v>17.75353534833885</v>
       </c>
       <c r="AE26" t="n">
-        <v>-3.813924875419758</v>
+        <v>-15.45007379440185</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.28880757020645</v>
+        <v>2.860703906576085</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.01926015203794</v>
+        <v>8.503921279309091</v>
       </c>
     </row>
     <row r="27">
@@ -4185,100 +4185,100 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.092365800384979</v>
+        <v>-0.1698731857000492</v>
       </c>
       <c r="C27" t="n">
-        <v>22.13349246208843</v>
+        <v>16.91549759619977</v>
       </c>
       <c r="D27" t="n">
-        <v>3.327744185701966</v>
+        <v>1.088383383241746</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.825477527033481</v>
+        <v>2.344971358893582</v>
       </c>
       <c r="F27" t="n">
-        <v>6.960683349152945</v>
+        <v>-3.534152620198034</v>
       </c>
       <c r="G27" t="n">
-        <v>13.27442938924248</v>
+        <v>-8.566253652093014</v>
       </c>
       <c r="H27" t="n">
-        <v>6.016206337497869</v>
+        <v>24.66872912869937</v>
       </c>
       <c r="I27" t="n">
-        <v>-4.334189740074318</v>
+        <v>10.02031793752137</v>
       </c>
       <c r="J27" t="n">
-        <v>3.982236528972662</v>
+        <v>-12.71355967289805</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.829731573187396</v>
+        <v>-1.054783911880177</v>
       </c>
       <c r="L27" t="n">
-        <v>2.209642770577412</v>
+        <v>7.823852390632199</v>
       </c>
       <c r="M27" t="n">
-        <v>5.681011020834261</v>
+        <v>1.653111993564893</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.7516932760738022</v>
+        <v>-5.103753412531415</v>
       </c>
       <c r="O27" t="n">
-        <v>7.028373371166424</v>
+        <v>-1.344939202163689</v>
       </c>
       <c r="P27" t="n">
-        <v>-1.559789989254938</v>
+        <v>12.70282836350772</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1.211596145052429</v>
+        <v>2.595085659794695</v>
       </c>
       <c r="R27" t="n">
-        <v>-7.086947992056321</v>
+        <v>-6.239560823195228</v>
       </c>
       <c r="S27" t="n">
-        <v>18.89418080952569</v>
+        <v>16.18815838859244</v>
       </c>
       <c r="T27" t="n">
-        <v>-15.78904490134069</v>
+        <v>-8.732296639954063</v>
       </c>
       <c r="U27" t="n">
-        <v>-5.089051600102457</v>
+        <v>25.5981335624616</v>
       </c>
       <c r="V27" t="n">
-        <v>22.04041528504818</v>
+        <v>24.80927432661766</v>
       </c>
       <c r="W27" t="n">
-        <v>-16.30366029766837</v>
+        <v>4.390391347843456</v>
       </c>
       <c r="X27" t="n">
-        <v>26.40072697726871</v>
+        <v>17.31434481033001</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.949912786632404</v>
+        <v>0.3380730733105118</v>
       </c>
       <c r="Z27" t="n">
-        <v>-1.305034946385609</v>
+        <v>6.083671578639906</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.002296423439037</v>
+        <v>8.294984853751364</v>
       </c>
       <c r="AB27" t="n">
-        <v>-3.674647504427791</v>
+        <v>29.92025909197942</v>
       </c>
       <c r="AC27" t="n">
-        <v>19.52888307724152</v>
+        <v>0.2747553692638202</v>
       </c>
       <c r="AD27" t="n">
-        <v>-3.722318372210289</v>
+        <v>23.62815988067713</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.1246275904827412</v>
+        <v>17.64231633784368</v>
       </c>
       <c r="AF27" t="n">
-        <v>-9.989496983680697</v>
+        <v>0.4904203537255229</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.072034059187469</v>
+        <v>-3.591471058962365</v>
       </c>
     </row>
     <row r="28">
@@ -4288,100 +4288,100 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.193295341095311</v>
+        <v>1.167758799994963</v>
       </c>
       <c r="C28" t="n">
-        <v>8.878766345265774</v>
+        <v>5.424669829751693</v>
       </c>
       <c r="D28" t="n">
-        <v>7.71978669655697</v>
+        <v>0.0975239327588754</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.019340769819809</v>
+        <v>-2.209848722064936</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.606369285185614</v>
+        <v>-6.394388066240408</v>
       </c>
       <c r="G28" t="n">
-        <v>14.07130527880305</v>
+        <v>-5.624507440305597</v>
       </c>
       <c r="H28" t="n">
-        <v>2.12878778285767</v>
+        <v>-26.77169592288198</v>
       </c>
       <c r="I28" t="n">
-        <v>1.706572637939192</v>
+        <v>-17.41628324675919</v>
       </c>
       <c r="J28" t="n">
-        <v>7.993492715045659</v>
+        <v>6.604000300420799</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.224318458636736</v>
+        <v>18.92818780386548</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4564881615467116</v>
+        <v>-25.40331166029124</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6043238494936728</v>
+        <v>-7.676839771056521</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.323463663174313</v>
+        <v>-11.3665771123476</v>
       </c>
       <c r="O28" t="n">
-        <v>5.017768654671601</v>
+        <v>-2.605768448613309</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.693185332496093</v>
+        <v>-20.63431356376337</v>
       </c>
       <c r="Q28" t="n">
-        <v>-4.042161185746451</v>
+        <v>-12.0678682122097</v>
       </c>
       <c r="R28" t="n">
-        <v>-4.330993462668295</v>
+        <v>-21.74780430900372</v>
       </c>
       <c r="S28" t="n">
-        <v>18.212434666094</v>
+        <v>-22.24435150944948</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.094926258078347</v>
+        <v>-0.9924616980408497</v>
       </c>
       <c r="U28" t="n">
-        <v>5.775354038706539</v>
+        <v>-4.877868342377734</v>
       </c>
       <c r="V28" t="n">
-        <v>14.25444966440702</v>
+        <v>-19.49174055703093</v>
       </c>
       <c r="W28" t="n">
-        <v>-7.63648472666394</v>
+        <v>-7.712851508197431</v>
       </c>
       <c r="X28" t="n">
-        <v>16.38664535636343</v>
+        <v>-14.7424261527723</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.29234642055713</v>
+        <v>3.389799561710432</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.5824646981371167</v>
+        <v>-16.80415496906866</v>
       </c>
       <c r="AA28" t="n">
-        <v>-1.277888375692253</v>
+        <v>-3.519516794891891</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.96661782675257</v>
+        <v>-42.62750514137248</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.690545767449136</v>
+        <v>-3.354445674795703</v>
       </c>
       <c r="AD28" t="n">
-        <v>-2.145103499459113</v>
+        <v>-5.107055070689738</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.382688735941052</v>
+        <v>-19.72135357867059</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.95122365808192</v>
+        <v>-4.340883628134363</v>
       </c>
       <c r="AG28" t="n">
-        <v>22.84091723844034</v>
+        <v>12.41707501256475</v>
       </c>
     </row>
     <row r="29">
@@ -4391,100 +4391,100 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.283602411367694</v>
+        <v>-6.144811866031234</v>
       </c>
       <c r="C29" t="n">
-        <v>-17.58697020936771</v>
+        <v>13.57429395634114</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.20337958088471</v>
+        <v>-10.81808419145548</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.583060774238441</v>
+        <v>-10.85582707147491</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.801869078156686</v>
+        <v>-5.951513739332572</v>
       </c>
       <c r="G29" t="n">
-        <v>-15.96936729204313</v>
+        <v>-0.01568601987110129</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.329570302428213</v>
+        <v>7.802773011426555</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.726489124142914</v>
+        <v>-8.418582835336561</v>
       </c>
       <c r="J29" t="n">
-        <v>-15.78358185365473</v>
+        <v>-0.3838664489493166</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.7363119476843945</v>
+        <v>16.86507706974721</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.717736591746904</v>
+        <v>-3.880495022933169</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.233471819097366</v>
+        <v>-11.56227050076372</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.462312074998543</v>
+        <v>-13.67209579300309</v>
       </c>
       <c r="O29" t="n">
-        <v>-19.27565065344623</v>
+        <v>-4.40624399455651</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7049708768366645</v>
+        <v>-25.04121053597921</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.4048492418922426</v>
+        <v>-9.525581811783637</v>
       </c>
       <c r="R29" t="n">
-        <v>1.440774442362871</v>
+        <v>-14.82605604301298</v>
       </c>
       <c r="S29" t="n">
-        <v>-3.505541281327585</v>
+        <v>-4.20064562433452</v>
       </c>
       <c r="T29" t="n">
-        <v>-4.355690126119895</v>
+        <v>-0.9651124967160807</v>
       </c>
       <c r="U29" t="n">
-        <v>-7.544416345607135</v>
+        <v>-1.503317479882093</v>
       </c>
       <c r="V29" t="n">
-        <v>-19.70322364103234</v>
+        <v>-7.992351707173203</v>
       </c>
       <c r="W29" t="n">
-        <v>1.032255026402542</v>
+        <v>-17.90133876892771</v>
       </c>
       <c r="X29" t="n">
-        <v>-16.95525283888146</v>
+        <v>-9.793214251705969</v>
       </c>
       <c r="Y29" t="n">
-        <v>-13.732976488815</v>
+        <v>-2.286604402401692</v>
       </c>
       <c r="Z29" t="n">
-        <v>-1.549178141974679</v>
+        <v>-12.64819986002935</v>
       </c>
       <c r="AA29" t="n">
-        <v>-1.082953413397562</v>
+        <v>-10.65812277239284</v>
       </c>
       <c r="AB29" t="n">
-        <v>-14.43812507875116</v>
+        <v>-18.42237225918685</v>
       </c>
       <c r="AC29" t="n">
-        <v>-11.65981602426055</v>
+        <v>-5.599046168546375</v>
       </c>
       <c r="AD29" t="n">
-        <v>-4.235423499883651</v>
+        <v>5.285347100258383</v>
       </c>
       <c r="AE29" t="n">
-        <v>-4.950514180249685</v>
+        <v>-5.717496784564295</v>
       </c>
       <c r="AF29" t="n">
-        <v>-10.13334780780404</v>
+        <v>-2.594457258094031</v>
       </c>
       <c r="AG29" t="n">
-        <v>-12.73444026514773</v>
+        <v>2.883451403492052</v>
       </c>
     </row>
     <row r="30">
@@ -4494,100 +4494,100 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.050215178391325</v>
+        <v>-1.130623263985868</v>
       </c>
       <c r="C30" t="n">
-        <v>-10.31904630321975</v>
+        <v>20.40393032327357</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.442297751437307</v>
+        <v>12.99479484696147</v>
       </c>
       <c r="E30" t="n">
-        <v>3.168606768795149</v>
+        <v>2.2952452357805</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.89709144186829</v>
+        <v>14.88262025780025</v>
       </c>
       <c r="G30" t="n">
-        <v>-15.82849276904033</v>
+        <v>7.481834237918528</v>
       </c>
       <c r="H30" t="n">
-        <v>-11.24955478615643</v>
+        <v>-2.354085171814043</v>
       </c>
       <c r="I30" t="n">
-        <v>-10.2020955585874</v>
+        <v>-15.64412841846435</v>
       </c>
       <c r="J30" t="n">
-        <v>-9.401805237004067</v>
+        <v>-1.544682748168085</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.8964471230736</v>
+        <v>20.8199772264794</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.003528517232663</v>
+        <v>4.315848812120121</v>
       </c>
       <c r="M30" t="n">
-        <v>-7.543357038172588</v>
+        <v>-2.06349518142263</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.576134720269238</v>
+        <v>26.76212888923519</v>
       </c>
       <c r="O30" t="n">
-        <v>11.98205105360492</v>
+        <v>-3.527676205848404</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.7862704803276443</v>
+        <v>-14.99654226422016</v>
       </c>
       <c r="Q30" t="n">
-        <v>-5.985268200816558</v>
+        <v>-8.065771660255995</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6850984366555002</v>
+        <v>20.86016357191129</v>
       </c>
       <c r="S30" t="n">
-        <v>-9.866988879892389</v>
+        <v>-9.516462191490676</v>
       </c>
       <c r="T30" t="n">
-        <v>-5.244580244234428</v>
+        <v>4.806844413363067</v>
       </c>
       <c r="U30" t="n">
-        <v>-11.75143634995333</v>
+        <v>17.44467032649382</v>
       </c>
       <c r="V30" t="n">
-        <v>6.547458426318573</v>
+        <v>11.07639092408709</v>
       </c>
       <c r="W30" t="n">
-        <v>-3.340186010767959</v>
+        <v>-2.180002534120235</v>
       </c>
       <c r="X30" t="n">
-        <v>-10.73035506417713</v>
+        <v>6.832025264676005</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.274309054185569</v>
+        <v>-5.008049759327117</v>
       </c>
       <c r="Z30" t="n">
-        <v>-1.856498050592516</v>
+        <v>-9.131720254927583</v>
       </c>
       <c r="AA30" t="n">
-        <v>-2.019251518792237</v>
+        <v>-3.230658739298276</v>
       </c>
       <c r="AB30" t="n">
-        <v>-3.890029894677399</v>
+        <v>-7.967828285452766</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.2004883230115</v>
+        <v>-1.648298916048799</v>
       </c>
       <c r="AD30" t="n">
-        <v>-4.675164030065743</v>
+        <v>27.92365922356097</v>
       </c>
       <c r="AE30" t="n">
-        <v>-6.768066623281379</v>
+        <v>3.926777508473597</v>
       </c>
       <c r="AF30" t="n">
-        <v>2.791209413244745</v>
+        <v>-6.676026400741764</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.09104086854622</v>
+        <v>3.079760463981409</v>
       </c>
     </row>
     <row r="31">
@@ -4597,100 +4597,100 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-13.12375761532973</v>
+        <v>-2.30978753163995</v>
       </c>
       <c r="C31" t="n">
-        <v>-25.75115269935474</v>
+        <v>-6.032421294564003</v>
       </c>
       <c r="D31" t="n">
-        <v>3.263512302411987</v>
+        <v>-29.44854621023089</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.483595877021022</v>
+        <v>-7.3500916515417</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.938849325766679</v>
+        <v>-6.032281059906991</v>
       </c>
       <c r="G31" t="n">
-        <v>-19.27222887342804</v>
+        <v>-1.921987228199807</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.465916733214247</v>
+        <v>-21.18658921631256</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.215166037931681</v>
+        <v>-19.71242801958681</v>
       </c>
       <c r="J31" t="n">
-        <v>-17.59130254897884</v>
+        <v>-16.67938873746046</v>
       </c>
       <c r="K31" t="n">
-        <v>1.275591879872484</v>
+        <v>-19.76405114912712</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.124583387462161</v>
+        <v>-9.372605816557574</v>
       </c>
       <c r="M31" t="n">
-        <v>-5.820405820526511</v>
+        <v>-5.090811904004115</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.634744429706248</v>
+        <v>-18.2969184249543</v>
       </c>
       <c r="O31" t="n">
-        <v>-16.00202318912791</v>
+        <v>-0.2695576976937228</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.482713385392331</v>
+        <v>-19.21418913981607</v>
       </c>
       <c r="Q31" t="n">
-        <v>-4.033994200040761</v>
+        <v>-10.23721502235422</v>
       </c>
       <c r="R31" t="n">
-        <v>4.446835511670283</v>
+        <v>-2.75633880211975</v>
       </c>
       <c r="S31" t="n">
-        <v>-16.45479445390708</v>
+        <v>-10.11788330478157</v>
       </c>
       <c r="T31" t="n">
-        <v>-3.234647487156499</v>
+        <v>-4.844476730328073</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.157278891008603</v>
+        <v>-18.45464172913009</v>
       </c>
       <c r="V31" t="n">
-        <v>-28.68188790436194</v>
+        <v>-26.32733181890014</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.590681358486427</v>
+        <v>-8.818885050222251</v>
       </c>
       <c r="X31" t="n">
-        <v>-27.92054176130593</v>
+        <v>-18.36688323668182</v>
       </c>
       <c r="Y31" t="n">
-        <v>-6.765963494790614</v>
+        <v>6.411167654765778</v>
       </c>
       <c r="Z31" t="n">
-        <v>-3.136646993778649</v>
+        <v>-31.97254033268524</v>
       </c>
       <c r="AA31" t="n">
-        <v>-2.97381861754084</v>
+        <v>-10.42085359143932</v>
       </c>
       <c r="AB31" t="n">
-        <v>-7.538640479411464</v>
+        <v>-23.80989354833346</v>
       </c>
       <c r="AC31" t="n">
-        <v>-24.22996325746523</v>
+        <v>-4.369400057792895</v>
       </c>
       <c r="AD31" t="n">
-        <v>-5.945660666149038</v>
+        <v>-13.52287281259668</v>
       </c>
       <c r="AE31" t="n">
-        <v>-6.93847711147347</v>
+        <v>-18.69356653473408</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.811887462775621</v>
+        <v>-0.2974547428044764</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.264687562104043</v>
+        <v>2.54550650884723</v>
       </c>
     </row>
     <row r="32">
@@ -4700,100 +4700,100 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.841362352037366</v>
+        <v>0.6993837943168396</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.643427679907098</v>
+        <v>5.677987020106888</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.969512010754844</v>
+        <v>16.95129377758587</v>
       </c>
       <c r="E32" t="n">
-        <v>-4.191405808141148</v>
+        <v>4.055676694131984</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.834474301962236</v>
+        <v>5.047077301231577</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05464628899194995</v>
+        <v>5.953515986929641</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.310986736444494</v>
+        <v>-1.7075197724987</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.5380505593788644</v>
+        <v>-12.1555320023218</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.330385397142131</v>
+        <v>1.655173570290371</v>
       </c>
       <c r="K32" t="n">
-        <v>1.710274803409305</v>
+        <v>13.84277143111006</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09019272819883514</v>
+        <v>5.26726170120475</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2228007184609867</v>
+        <v>-6.656745610841497</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.6473091708628774</v>
+        <v>24.30700403699333</v>
       </c>
       <c r="O32" t="n">
-        <v>-19.27801726901167</v>
+        <v>-0.2282293921808438</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.8373518905979758</v>
+        <v>-11.49371227225566</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7409495157594578</v>
+        <v>1.55158380530099</v>
       </c>
       <c r="R32" t="n">
-        <v>3.434547663616299</v>
+        <v>6.049825837640895</v>
       </c>
       <c r="S32" t="n">
-        <v>7.783457877907816</v>
+        <v>-10.11995674555854</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.38639445681045</v>
+        <v>-2.967512545841772</v>
       </c>
       <c r="U32" t="n">
-        <v>-7.109311390840866</v>
+        <v>20.90532447319493</v>
       </c>
       <c r="V32" t="n">
-        <v>-3.849659574664261</v>
+        <v>20.29756093176095</v>
       </c>
       <c r="W32" t="n">
-        <v>-8.630868546988747</v>
+        <v>6.829858411242707</v>
       </c>
       <c r="X32" t="n">
-        <v>-2.792410498193312</v>
+        <v>-8.894378705904634</v>
       </c>
       <c r="Y32" t="n">
-        <v>-5.693999500169646</v>
+        <v>-12.49982269341798</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1.480667044259113</v>
+        <v>-2.687014436360003</v>
       </c>
       <c r="AA32" t="n">
-        <v>-1.151942419899901</v>
+        <v>1.537803359485687</v>
       </c>
       <c r="AB32" t="n">
-        <v>-8.361151371576975</v>
+        <v>6.975422248587191</v>
       </c>
       <c r="AC32" t="n">
-        <v>-9.525379617584303</v>
+        <v>1.006710885428823</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.292343368695767</v>
+        <v>30.29070163339203</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.612817755263852</v>
+        <v>5.736395537365909</v>
       </c>
       <c r="AF32" t="n">
-        <v>-16.86824803988291</v>
+        <v>1.164820515218172</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.3095869569081964</v>
+        <v>2.587922882612641</v>
       </c>
     </row>
     <row r="33">
@@ -4803,100 +4803,100 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.331720333487555</v>
+        <v>-2.205426956257084</v>
       </c>
       <c r="C33" t="n">
-        <v>4.808941281259028</v>
+        <v>4.903139094655462</v>
       </c>
       <c r="D33" t="n">
-        <v>-9.354557370463823</v>
+        <v>29.89608189855742</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.43576345829164</v>
+        <v>-0.5274275714276404</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.827947058262979</v>
+        <v>-0.1402517828633628</v>
       </c>
       <c r="G33" t="n">
-        <v>12.60587992975588</v>
+        <v>-11.1972769353124</v>
       </c>
       <c r="H33" t="n">
-        <v>9.385657077160653</v>
+        <v>26.25579060046597</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.321531745493112</v>
+        <v>4.980870507561281</v>
       </c>
       <c r="J33" t="n">
-        <v>1.374313760973757</v>
+        <v>-1.666914164633859</v>
       </c>
       <c r="K33" t="n">
-        <v>3.283504505511841</v>
+        <v>2.979143817593114</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22913323874578</v>
+        <v>6.806228789694272</v>
       </c>
       <c r="M33" t="n">
-        <v>3.500132209770267</v>
+        <v>0.9019117275664683</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.234266481378209</v>
+        <v>10.05033612655482</v>
       </c>
       <c r="O33" t="n">
-        <v>8.320368041543581</v>
+        <v>-2.340859753742048</v>
       </c>
       <c r="P33" t="n">
-        <v>-1.434525309534428</v>
+        <v>17.31610712726576</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.638067274549788</v>
+        <v>7.627185650416984</v>
       </c>
       <c r="R33" t="n">
-        <v>-1.036167093833919</v>
+        <v>-3.245890175604633</v>
       </c>
       <c r="S33" t="n">
-        <v>13.36018721224298</v>
+        <v>12.03772957589041</v>
       </c>
       <c r="T33" t="n">
-        <v>2.233634801098749</v>
+        <v>-2.513145232004014</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.2393521596730512</v>
+        <v>26.27367265801675</v>
       </c>
       <c r="V33" t="n">
-        <v>10.32880163985732</v>
+        <v>22.02134592632509</v>
       </c>
       <c r="W33" t="n">
-        <v>-2.537712075272146</v>
+        <v>2.886598644745459</v>
       </c>
       <c r="X33" t="n">
-        <v>8.900157906147564</v>
+        <v>6.727403304981372</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.28896683565255</v>
+        <v>-0.5243712548709653</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.01129187035867914</v>
+        <v>-3.421982974608403</v>
       </c>
       <c r="AA33" t="n">
-        <v>-1.208391934036128</v>
+        <v>0.7059047041625751</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.7452673555183811</v>
+        <v>19.49502106111675</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.680530227888399</v>
+        <v>-0.3360587715257895</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.6942052101664858</v>
+        <v>8.454805861147914</v>
       </c>
       <c r="AE33" t="n">
-        <v>3.69875603244019</v>
+        <v>15.51408536680202</v>
       </c>
       <c r="AF33" t="n">
-        <v>-2.228944802303961</v>
+        <v>-5.651069715874927</v>
       </c>
       <c r="AG33" t="n">
-        <v>15.09881073590429</v>
+        <v>-2.806627532534963</v>
       </c>
     </row>
     <row r="34">
@@ -4906,100 +4906,100 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.696158951220429</v>
+        <v>0.1802462343322363</v>
       </c>
       <c r="C34" t="n">
-        <v>27.99857493761452</v>
+        <v>-2.201986568085168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1632314558288153</v>
+        <v>9.899179028080111</v>
       </c>
       <c r="E34" t="n">
-        <v>-8.683348099081291</v>
+        <v>-3.030230324590383</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.805969596714715</v>
+        <v>-4.384566800108698</v>
       </c>
       <c r="G34" t="n">
-        <v>11.60186929788417</v>
+        <v>-22.30321651224534</v>
       </c>
       <c r="H34" t="n">
-        <v>6.469562195818174</v>
+        <v>20.86194130318993</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.623023677155777</v>
+        <v>12.50315476689355</v>
       </c>
       <c r="J34" t="n">
-        <v>10.79617528759093</v>
+        <v>-11.31475159409756</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.85057721530186</v>
+        <v>-3.648901842063557</v>
       </c>
       <c r="L34" t="n">
-        <v>1.654767646706041</v>
+        <v>17.51970476988062</v>
       </c>
       <c r="M34" t="n">
-        <v>7.092633093873169</v>
+        <v>2.208646366871133</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.9994057772277072</v>
+        <v>0.4055249778993849</v>
       </c>
       <c r="O34" t="n">
-        <v>1.745285146405655</v>
+        <v>0.1959884869084511</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1159176874750592</v>
+        <v>15.44233528382904</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.035720087789797</v>
+        <v>8.989010080411191</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.914639752755148</v>
+        <v>-1.809204429502733</v>
       </c>
       <c r="S34" t="n">
-        <v>26.78005014797689</v>
+        <v>19.80285250647276</v>
       </c>
       <c r="T34" t="n">
-        <v>-10.27647094812331</v>
+        <v>-0.348462008832897</v>
       </c>
       <c r="U34" t="n">
-        <v>1.5938551121667</v>
+        <v>20.86486083804928</v>
       </c>
       <c r="V34" t="n">
-        <v>18.86799641227289</v>
+        <v>6.13182662472139</v>
       </c>
       <c r="W34" t="n">
-        <v>-4.544155907925113</v>
+        <v>-2.486646303314737</v>
       </c>
       <c r="X34" t="n">
-        <v>14.3552573448188</v>
+        <v>4.643495991102887</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.978628175870867</v>
+        <v>1.65517928141913</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.248987552425605</v>
+        <v>20.29294481992628</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.4661232175813026</v>
+        <v>3.150770420812341</v>
       </c>
       <c r="AB34" t="n">
-        <v>-2.451513099621601</v>
+        <v>17.35590833205179</v>
       </c>
       <c r="AC34" t="n">
-        <v>18.25179245528716</v>
+        <v>-2.830327242775045</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.6354140680657177</v>
+        <v>15.83198870023902</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.3343230066665508</v>
+        <v>13.06250570034121</v>
       </c>
       <c r="AF34" t="n">
-        <v>-6.249653276179151</v>
+        <v>0.3091957812170388</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.178862591319463</v>
+        <v>-2.827997268102938</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.1783276418915</v>
+        <v>177.8816595231118</v>
       </c>
     </row>
     <row r="3">
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.740242165745</v>
+        <v>70.50889111569521</v>
       </c>
     </row>
     <row r="4">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.5986862983029</v>
+        <v>172.7649893973496</v>
       </c>
     </row>
     <row r="5">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.1857700070463</v>
+        <v>173.5432501785758</v>
       </c>
     </row>
     <row r="6">
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.9233785765501</v>
+        <v>101.3259589461219</v>
       </c>
     </row>
     <row r="7">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.651274910551</v>
+        <v>116.0968078302998</v>
       </c>
     </row>
     <row r="8">
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.0598957079704</v>
+        <v>152.6944907910432</v>
       </c>
     </row>
     <row r="9">
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.0534653809617</v>
+        <v>186.1616179270724</v>
       </c>
     </row>
     <row r="10">
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.5190255129934</v>
+        <v>180.4189774379609</v>
       </c>
     </row>
     <row r="11">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.7766225430042</v>
+        <v>141.0230774853723</v>
       </c>
     </row>
     <row r="12">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.15791803228417</v>
+        <v>183.1310508101766</v>
       </c>
     </row>
     <row r="13">
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.27441412717148</v>
+        <v>168.9944743210043</v>
       </c>
     </row>
     <row r="14">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.3343327254313</v>
+        <v>114.5561464770093</v>
       </c>
     </row>
     <row r="15">
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.43300918034853</v>
+        <v>168.9474756807228</v>
       </c>
     </row>
     <row r="16">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.8523638534854</v>
+        <v>68.78289298993481</v>
       </c>
     </row>
     <row r="17">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.84315151958381</v>
+        <v>184.0673301501051</v>
       </c>
     </row>
     <row r="18">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.87224213107646</v>
+        <v>120.3251361987235</v>
       </c>
     </row>
     <row r="19">
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19.50478058521746</v>
+        <v>158.4387125042694</v>
       </c>
     </row>
     <row r="20">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.9426909856025</v>
+        <v>184.7257035952836</v>
       </c>
     </row>
     <row r="21">
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>147.1795006160981</v>
+        <v>104.6421491089163</v>
       </c>
     </row>
     <row r="22">
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.332993470706</v>
+        <v>174.4025716358418</v>
       </c>
     </row>
     <row r="23">
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.2765574313783</v>
+        <v>158.2387116156518</v>
       </c>
     </row>
     <row r="24">
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>163.6566452200918</v>
+        <v>121.0120995917653</v>
       </c>
     </row>
     <row r="25">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187.5783003030066</v>
+        <v>170.6474968338034</v>
       </c>
     </row>
     <row r="26">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>174.9074314144848</v>
+        <v>-24.73030907625257</v>
       </c>
     </row>
     <row r="27">
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.82304216300115</v>
+        <v>169.3395121037984</v>
       </c>
     </row>
     <row r="28">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.12550641181604</v>
+        <v>118.1344957634161</v>
       </c>
     </row>
     <row r="29">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120.1752342696469</v>
+        <v>177.7176606683525</v>
       </c>
     </row>
     <row r="30">
@@ -5315,7 +5315,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>187.301276135283</v>
+        <v>63.76208472546247</v>
       </c>
     </row>
     <row r="31">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.68147236188888</v>
+        <v>173.9361338152462</v>
       </c>
     </row>
     <row r="32">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.57549868308899</v>
+        <v>186.2905391892401</v>
       </c>
     </row>
     <row r="33">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>159.7353411831571</v>
+        <v>75.55401033742457</v>
       </c>
     </row>
     <row r="34">
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.2869658821667</v>
+        <v>-40.91169407339686</v>
       </c>
     </row>
   </sheetData>
